--- a/brasileirao/src/arquivos/partidas.xlsx
+++ b/brasileirao/src/arquivos/partidas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="22">
   <si>
     <t>Palmeiras</t>
   </si>
@@ -85,12 +85,18 @@
   <si>
     <t>Athletico-PR</t>
   </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +112,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -169,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -223,11 +236,195 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -518,19 +715,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>0</v>
       </c>
@@ -546,8 +743,11 @@
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -563,8 +763,11 @@
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -580,8 +783,11 @@
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -597,8 +803,11 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -614,8 +823,11 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -631,8 +843,11 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -648,8 +863,11 @@
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -665,8 +883,11 @@
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -682,8 +903,11 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -699,8 +923,11 @@
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -716,8 +943,11 @@
       <c r="E11" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -733,8 +963,11 @@
       <c r="E12" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -750,8 +983,11 @@
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -767,8 +1003,11 @@
       <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -784,8 +1023,11 @@
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -801,8 +1043,11 @@
       <c r="E16" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -818,8 +1063,11 @@
       <c r="E17" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -835,8 +1083,11 @@
       <c r="E18" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -852,8 +1103,11 @@
       <c r="E19" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -869,8 +1123,11 @@
       <c r="E20" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -886,8 +1143,11 @@
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -903,8 +1163,11 @@
       <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -920,8 +1183,11 @@
       <c r="E23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -937,8 +1203,11 @@
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -954,8 +1223,11 @@
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -971,8 +1243,11 @@
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -988,8 +1263,11 @@
       <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -1005,8 +1283,11 @@
       <c r="E28" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -1022,8 +1303,11 @@
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -1039,8 +1323,11 @@
       <c r="E30" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -1056,8 +1343,11 @@
       <c r="E31" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -1073,8 +1363,11 @@
       <c r="E32" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -1090,8 +1383,11 @@
       <c r="E33" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -1107,8 +1403,11 @@
       <c r="E34" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -1124,8 +1423,11 @@
       <c r="E35" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -1141,8 +1443,11 @@
       <c r="E36" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -1158,8 +1463,11 @@
       <c r="E37" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -1175,8 +1483,11 @@
       <c r="E38" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -1192,8 +1503,11 @@
       <c r="E39" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -1209,8 +1523,11 @@
       <c r="E40" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -1226,8 +1543,11 @@
       <c r="E41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -1243,8 +1563,11 @@
       <c r="E42" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -1260,8 +1583,11 @@
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -1277,8 +1603,11 @@
       <c r="E44" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -1294,8 +1623,11 @@
       <c r="E45" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -1311,8 +1643,11 @@
       <c r="E46" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -1328,8 +1663,11 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -1345,8 +1683,11 @@
       <c r="E48" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -1362,8 +1703,11 @@
       <c r="E49" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -1379,8 +1723,11 @@
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -1396,8 +1743,11 @@
       <c r="E51" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -1413,8 +1763,11 @@
       <c r="E52" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -1430,8 +1783,11 @@
       <c r="E53" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -1447,8 +1803,11 @@
       <c r="E54" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -1464,8 +1823,11 @@
       <c r="E55" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -1481,8 +1843,11 @@
       <c r="E56" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -1498,8 +1863,11 @@
       <c r="E57" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -1515,8 +1883,11 @@
       <c r="E58" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -1532,8 +1903,11 @@
       <c r="E59" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -1549,8 +1923,11 @@
       <c r="E60" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -1566,8 +1943,11 @@
       <c r="E61" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -1583,8 +1963,11 @@
       <c r="E62" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -1600,8 +1983,11 @@
       <c r="E63" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -1617,8 +2003,11 @@
       <c r="E64" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -1634,8 +2023,11 @@
       <c r="E65" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -1651,8 +2043,11 @@
       <c r="E66" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -1668,8 +2063,11 @@
       <c r="E67" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -1685,8 +2083,11 @@
       <c r="E68" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -1702,8 +2103,11 @@
       <c r="E69" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -1719,8 +2123,11 @@
       <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -1736,8 +2143,11 @@
       <c r="E71" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -1753,8 +2163,11 @@
       <c r="E72" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -1770,8 +2183,11 @@
       <c r="E73" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -1787,8 +2203,11 @@
       <c r="E74" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -1804,8 +2223,11 @@
       <c r="E75" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -1821,8 +2243,11 @@
       <c r="E76" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -1838,8 +2263,11 @@
       <c r="E77" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -1855,8 +2283,11 @@
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -1872,8 +2303,11 @@
       <c r="E79" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -1889,8 +2323,11 @@
       <c r="E80" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -1906,8 +2343,11 @@
       <c r="E81" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -1923,8 +2363,11 @@
       <c r="E82" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -1940,8 +2383,11 @@
       <c r="E83" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -1957,8 +2403,11 @@
       <c r="E84" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -1974,8 +2423,11 @@
       <c r="E85" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -1991,8 +2443,11 @@
       <c r="E86" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -2008,8 +2463,11 @@
       <c r="E87" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -2025,8 +2483,11 @@
       <c r="E88" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -2042,8 +2503,11 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -2059,8 +2523,11 @@
       <c r="E90" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -2076,8 +2543,11 @@
       <c r="E91" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -2093,8 +2563,11 @@
       <c r="E92" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -2110,8 +2583,11 @@
       <c r="E93" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -2127,8 +2603,11 @@
       <c r="E94" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -2144,8 +2623,11 @@
       <c r="E95" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -2161,8 +2643,11 @@
       <c r="E96" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -2178,8 +2663,11 @@
       <c r="E97" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -2195,8 +2683,11 @@
       <c r="E98" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -2212,8 +2703,11 @@
       <c r="E99" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -2229,8 +2723,11 @@
       <c r="E100" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -2246,8 +2743,11 @@
       <c r="E101" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -2263,8 +2763,11 @@
       <c r="E102" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -2280,8 +2783,11 @@
       <c r="E103" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -2297,8 +2803,11 @@
       <c r="E104" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -2314,8 +2823,11 @@
       <c r="E105" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -2331,8 +2843,11 @@
       <c r="E106" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -2348,8 +2863,11 @@
       <c r="E107" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -2365,8 +2883,11 @@
       <c r="E108" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -2382,8 +2903,11 @@
       <c r="E109" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -2399,8 +2923,11 @@
       <c r="E110" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -2416,8 +2943,11 @@
       <c r="E111" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -2433,8 +2963,11 @@
       <c r="E112" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -2450,8 +2983,11 @@
       <c r="E113" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -2467,8 +3003,11 @@
       <c r="E114" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -2484,8 +3023,11 @@
       <c r="E115" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -2501,8 +3043,11 @@
       <c r="E116" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -2518,8 +3063,11 @@
       <c r="E117" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -2535,8 +3083,11 @@
       <c r="E118" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -2552,8 +3103,11 @@
       <c r="E119" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -2569,8 +3123,11 @@
       <c r="E120" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -2586,8 +3143,11 @@
       <c r="E121" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -2603,8 +3163,11 @@
       <c r="E122" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -2620,8 +3183,11 @@
       <c r="E123" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -2637,8 +3203,11 @@
       <c r="E124" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -2654,8 +3223,11 @@
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -2671,8 +3243,11 @@
       <c r="E126" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -2688,8 +3263,11 @@
       <c r="E127" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -2705,8 +3283,11 @@
       <c r="E128" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -2722,8 +3303,11 @@
       <c r="E129" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -2739,8 +3323,11 @@
       <c r="E130" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -2756,8 +3343,11 @@
       <c r="E131" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -2773,8 +3363,11 @@
       <c r="E132" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -2790,8 +3383,11 @@
       <c r="E133" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -2807,8 +3403,11 @@
       <c r="E134" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -2824,8 +3423,11 @@
       <c r="E135" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -2841,8 +3443,11 @@
       <c r="E136" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -2858,8 +3463,11 @@
       <c r="E137" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -2875,8 +3483,11 @@
       <c r="E138" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -2892,8 +3503,11 @@
       <c r="E139" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -2909,8 +3523,11 @@
       <c r="E140" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -2926,8 +3543,11 @@
       <c r="E141" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -2943,8 +3563,11 @@
       <c r="E142" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -2960,8 +3583,11 @@
       <c r="E143" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -2977,8 +3603,11 @@
       <c r="E144" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -2994,8 +3623,11 @@
       <c r="E145" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -3011,8 +3643,11 @@
       <c r="E146" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -3028,8 +3663,11 @@
       <c r="E147" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -3045,8 +3683,11 @@
       <c r="E148" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -3062,8 +3703,11 @@
       <c r="E149" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -3079,8 +3723,11 @@
       <c r="E150" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -3096,8 +3743,11 @@
       <c r="E151" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -3113,8 +3763,11 @@
       <c r="E152" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -3130,8 +3783,11 @@
       <c r="E153" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -3147,8 +3803,11 @@
       <c r="E154" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -3164,8 +3823,11 @@
       <c r="E155" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -3181,8 +3843,11 @@
       <c r="E156" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -3198,8 +3863,11 @@
       <c r="E157" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -3215,8 +3883,11 @@
       <c r="E158" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -3232,8 +3903,11 @@
       <c r="E159" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -3249,8 +3923,11 @@
       <c r="E160" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -3266,8 +3943,11 @@
       <c r="E161" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -3283,8 +3963,11 @@
       <c r="E162" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -3300,8 +3983,11 @@
       <c r="E163" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -3317,8 +4003,11 @@
       <c r="E164" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -3334,8 +4023,11 @@
       <c r="E165" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -3351,8 +4043,11 @@
       <c r="E166" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -3368,8 +4063,11 @@
       <c r="E167" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -3385,8 +4083,11 @@
       <c r="E168" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>168</v>
       </c>
@@ -3402,8 +4103,11 @@
       <c r="E169" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>169</v>
       </c>
@@ -3419,8 +4123,11 @@
       <c r="E170" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>170</v>
       </c>
@@ -3436,8 +4143,11 @@
       <c r="E171" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>171</v>
       </c>
@@ -3453,8 +4163,11 @@
       <c r="E172" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>172</v>
       </c>
@@ -3470,8 +4183,11 @@
       <c r="E173" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>173</v>
       </c>
@@ -3487,8 +4203,11 @@
       <c r="E174" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>174</v>
       </c>
@@ -3504,8 +4223,11 @@
       <c r="E175" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>175</v>
       </c>
@@ -3521,8 +4243,11 @@
       <c r="E176" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>176</v>
       </c>
@@ -3538,8 +4263,11 @@
       <c r="E177" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>177</v>
       </c>
@@ -3555,8 +4283,11 @@
       <c r="E178" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>178</v>
       </c>
@@ -3572,8 +4303,11 @@
       <c r="E179" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -3589,8 +4323,11 @@
       <c r="E180" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -3606,8 +4343,11 @@
       <c r="E181" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -3623,8 +4363,11 @@
       <c r="E182" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>182</v>
       </c>
@@ -3640,8 +4383,11 @@
       <c r="E183" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>183</v>
       </c>
@@ -3657,8 +4403,11 @@
       <c r="E184" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>184</v>
       </c>
@@ -3674,8 +4423,11 @@
       <c r="E185" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>185</v>
       </c>
@@ -3691,8 +4443,11 @@
       <c r="E186" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>186</v>
       </c>
@@ -3708,8 +4463,11 @@
       <c r="E187" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>187</v>
       </c>
@@ -3725,8 +4483,11 @@
       <c r="E188" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>188</v>
       </c>
@@ -3742,8 +4503,11 @@
       <c r="E189" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>189</v>
       </c>
@@ -3759,8 +4523,11 @@
       <c r="E190" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>190</v>
       </c>
@@ -3776,8 +4543,11 @@
       <c r="E191" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>191</v>
       </c>
@@ -3793,8 +4563,11 @@
       <c r="E192" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>192</v>
       </c>
@@ -3810,8 +4583,11 @@
       <c r="E193" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>193</v>
       </c>
@@ -3827,8 +4603,11 @@
       <c r="E194" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>194</v>
       </c>
@@ -3844,8 +4623,11 @@
       <c r="E195" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>195</v>
       </c>
@@ -3861,8 +4643,11 @@
       <c r="E196" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>196</v>
       </c>
@@ -3878,8 +4663,11 @@
       <c r="E197" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>197</v>
       </c>
@@ -3895,8 +4683,11 @@
       <c r="E198" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>198</v>
       </c>
@@ -3912,8 +4703,11 @@
       <c r="E199" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>199</v>
       </c>
@@ -3929,8 +4723,11 @@
       <c r="E200" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>200</v>
       </c>
@@ -3946,8 +4743,11 @@
       <c r="E201" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>201</v>
       </c>
@@ -3963,8 +4763,11 @@
       <c r="E202" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>202</v>
       </c>
@@ -3980,8 +4783,11 @@
       <c r="E203" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>203</v>
       </c>
@@ -3997,8 +4803,11 @@
       <c r="E204" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>204</v>
       </c>
@@ -4014,8 +4823,11 @@
       <c r="E205" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>205</v>
       </c>
@@ -4031,8 +4843,11 @@
       <c r="E206" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>206</v>
       </c>
@@ -4048,8 +4863,11 @@
       <c r="E207" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>207</v>
       </c>
@@ -4065,8 +4883,11 @@
       <c r="E208" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
@@ -4082,8 +4903,11 @@
       <c r="E209" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>209</v>
       </c>
@@ -4099,2234 +4923,3432 @@
       <c r="E210" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="16"/>
-      <c r="D211" s="7"/>
+      <c r="C211" s="17">
+        <v>0</v>
+      </c>
+      <c r="D211" s="18">
+        <v>0</v>
+      </c>
       <c r="E211" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C212" s="16"/>
-      <c r="D212" s="7"/>
+      <c r="C212" s="17">
+        <v>0</v>
+      </c>
+      <c r="D212" s="18">
+        <v>0</v>
+      </c>
       <c r="E212" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="16"/>
-      <c r="D213" s="7"/>
+      <c r="C213" s="17">
+        <v>0</v>
+      </c>
+      <c r="D213" s="18">
+        <v>0</v>
+      </c>
       <c r="E213" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="16"/>
-      <c r="D214" s="7"/>
+      <c r="C214" s="17">
+        <v>0</v>
+      </c>
+      <c r="D214" s="18">
+        <v>0</v>
+      </c>
       <c r="E214" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C215" s="16"/>
-      <c r="D215" s="7"/>
+      <c r="C215" s="17">
+        <v>0</v>
+      </c>
+      <c r="D215" s="18">
+        <v>0</v>
+      </c>
       <c r="E215" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C216" s="16"/>
-      <c r="D216" s="7"/>
+      <c r="C216" s="17">
+        <v>0</v>
+      </c>
+      <c r="D216" s="18">
+        <v>0</v>
+      </c>
       <c r="E216" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="16"/>
-      <c r="D217" s="7"/>
+      <c r="C217" s="17">
+        <v>0</v>
+      </c>
+      <c r="D217" s="18">
+        <v>0</v>
+      </c>
       <c r="E217" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C218" s="16"/>
-      <c r="D218" s="7"/>
+      <c r="C218" s="17">
+        <v>0</v>
+      </c>
+      <c r="D218" s="18">
+        <v>0</v>
+      </c>
       <c r="E218" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="16"/>
-      <c r="D219" s="7"/>
+      <c r="C219" s="17">
+        <v>0</v>
+      </c>
+      <c r="D219" s="18">
+        <v>0</v>
+      </c>
       <c r="E219" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C220" s="16"/>
-      <c r="D220" s="7"/>
+      <c r="C220" s="17">
+        <v>0</v>
+      </c>
+      <c r="D220" s="18">
+        <v>0</v>
+      </c>
       <c r="E220" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C221" s="15"/>
-      <c r="D221" s="2"/>
+      <c r="C221" s="19">
+        <v>0</v>
+      </c>
+      <c r="D221" s="20">
+        <v>0</v>
+      </c>
       <c r="E221" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C222" s="15"/>
-      <c r="D222" s="2"/>
+      <c r="C222" s="19">
+        <v>0</v>
+      </c>
+      <c r="D222" s="20">
+        <v>0</v>
+      </c>
       <c r="E222" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C223" s="15"/>
-      <c r="D223" s="2"/>
+      <c r="C223" s="19">
+        <v>0</v>
+      </c>
+      <c r="D223" s="20">
+        <v>0</v>
+      </c>
       <c r="E223" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C224" s="15"/>
-      <c r="D224" s="2"/>
+      <c r="C224" s="19">
+        <v>0</v>
+      </c>
+      <c r="D224" s="20">
+        <v>0</v>
+      </c>
       <c r="E224" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C225" s="15"/>
-      <c r="D225" s="2"/>
+      <c r="C225" s="19">
+        <v>0</v>
+      </c>
+      <c r="D225" s="20">
+        <v>0</v>
+      </c>
       <c r="E225" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="15"/>
-      <c r="D226" s="2"/>
+      <c r="C226" s="19">
+        <v>0</v>
+      </c>
+      <c r="D226" s="20">
+        <v>0</v>
+      </c>
       <c r="E226" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C227" s="15"/>
-      <c r="D227" s="2"/>
+      <c r="C227" s="19">
+        <v>0</v>
+      </c>
+      <c r="D227" s="20">
+        <v>0</v>
+      </c>
       <c r="E227" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C228" s="15"/>
-      <c r="D228" s="2"/>
+      <c r="C228" s="19">
+        <v>0</v>
+      </c>
+      <c r="D228" s="20">
+        <v>0</v>
+      </c>
       <c r="E228" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C229" s="15"/>
-      <c r="D229" s="2"/>
+      <c r="C229" s="19">
+        <v>0</v>
+      </c>
+      <c r="D229" s="20">
+        <v>0</v>
+      </c>
       <c r="E229" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C230" s="15"/>
-      <c r="D230" s="2"/>
+      <c r="C230" s="19">
+        <v>0</v>
+      </c>
+      <c r="D230" s="20">
+        <v>0</v>
+      </c>
       <c r="E230" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C231" s="16"/>
-      <c r="D231" s="7"/>
+      <c r="C231" s="17">
+        <v>0</v>
+      </c>
+      <c r="D231" s="18">
+        <v>0</v>
+      </c>
       <c r="E231" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C232" s="16"/>
-      <c r="D232" s="7"/>
+      <c r="C232" s="17">
+        <v>0</v>
+      </c>
+      <c r="D232" s="18">
+        <v>0</v>
+      </c>
       <c r="E232" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C233" s="16"/>
-      <c r="D233" s="7"/>
+      <c r="C233" s="17">
+        <v>0</v>
+      </c>
+      <c r="D233" s="18">
+        <v>0</v>
+      </c>
       <c r="E233" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C234" s="16"/>
-      <c r="D234" s="7"/>
+      <c r="C234" s="17">
+        <v>0</v>
+      </c>
+      <c r="D234" s="18">
+        <v>0</v>
+      </c>
       <c r="E234" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C235" s="16"/>
-      <c r="D235" s="7"/>
+      <c r="C235" s="17">
+        <v>0</v>
+      </c>
+      <c r="D235" s="18">
+        <v>0</v>
+      </c>
       <c r="E235" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="16"/>
-      <c r="D236" s="7"/>
+      <c r="C236" s="17">
+        <v>0</v>
+      </c>
+      <c r="D236" s="18">
+        <v>0</v>
+      </c>
       <c r="E236" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="16"/>
-      <c r="D237" s="7"/>
+      <c r="C237" s="17">
+        <v>0</v>
+      </c>
+      <c r="D237" s="18">
+        <v>0</v>
+      </c>
       <c r="E237" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="16"/>
-      <c r="D238" s="7"/>
+      <c r="C238" s="17">
+        <v>0</v>
+      </c>
+      <c r="D238" s="18">
+        <v>0</v>
+      </c>
       <c r="E238" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C239" s="16"/>
-      <c r="D239" s="7"/>
+      <c r="C239" s="17">
+        <v>0</v>
+      </c>
+      <c r="D239" s="18">
+        <v>0</v>
+      </c>
       <c r="E239" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C240" s="16"/>
-      <c r="D240" s="7"/>
+      <c r="C240" s="17">
+        <v>0</v>
+      </c>
+      <c r="D240" s="18">
+        <v>0</v>
+      </c>
       <c r="E240" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C241" s="15"/>
-      <c r="D241" s="2"/>
+      <c r="C241" s="19">
+        <v>0</v>
+      </c>
+      <c r="D241" s="20">
+        <v>0</v>
+      </c>
       <c r="E241" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C242" s="15"/>
-      <c r="D242" s="2"/>
+      <c r="C242" s="19">
+        <v>0</v>
+      </c>
+      <c r="D242" s="20">
+        <v>0</v>
+      </c>
       <c r="E242" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C243" s="15"/>
-      <c r="D243" s="2"/>
+      <c r="C243" s="19">
+        <v>0</v>
+      </c>
+      <c r="D243" s="20">
+        <v>0</v>
+      </c>
       <c r="E243" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C244" s="15"/>
-      <c r="D244" s="2"/>
+      <c r="C244" s="19">
+        <v>0</v>
+      </c>
+      <c r="D244" s="20">
+        <v>0</v>
+      </c>
       <c r="E244" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C245" s="15"/>
-      <c r="D245" s="2"/>
+      <c r="C245" s="19">
+        <v>0</v>
+      </c>
+      <c r="D245" s="20">
+        <v>0</v>
+      </c>
       <c r="E245" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C246" s="15"/>
-      <c r="D246" s="2"/>
+      <c r="C246" s="19">
+        <v>0</v>
+      </c>
+      <c r="D246" s="20">
+        <v>0</v>
+      </c>
       <c r="E246" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C247" s="15"/>
-      <c r="D247" s="2"/>
+      <c r="C247" s="19">
+        <v>0</v>
+      </c>
+      <c r="D247" s="20">
+        <v>0</v>
+      </c>
       <c r="E247" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C248" s="15"/>
-      <c r="D248" s="2"/>
+      <c r="C248" s="19">
+        <v>0</v>
+      </c>
+      <c r="D248" s="20">
+        <v>0</v>
+      </c>
       <c r="E248" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C249" s="15"/>
-      <c r="D249" s="2"/>
+      <c r="C249" s="19">
+        <v>0</v>
+      </c>
+      <c r="D249" s="20">
+        <v>0</v>
+      </c>
       <c r="E249" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C250" s="15"/>
-      <c r="D250" s="2"/>
+      <c r="C250" s="19">
+        <v>0</v>
+      </c>
+      <c r="D250" s="20">
+        <v>0</v>
+      </c>
       <c r="E250" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C251" s="16"/>
-      <c r="D251" s="7"/>
+      <c r="C251" s="17">
+        <v>0</v>
+      </c>
+      <c r="D251" s="18">
+        <v>0</v>
+      </c>
       <c r="E251" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C252" s="16"/>
-      <c r="D252" s="7"/>
+      <c r="C252" s="17">
+        <v>0</v>
+      </c>
+      <c r="D252" s="18">
+        <v>0</v>
+      </c>
       <c r="E252" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C253" s="16"/>
-      <c r="D253" s="7"/>
+      <c r="C253" s="17">
+        <v>0</v>
+      </c>
+      <c r="D253" s="18">
+        <v>0</v>
+      </c>
       <c r="E253" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C254" s="16"/>
-      <c r="D254" s="7"/>
+      <c r="C254" s="17">
+        <v>0</v>
+      </c>
+      <c r="D254" s="18">
+        <v>0</v>
+      </c>
       <c r="E254" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C255" s="16"/>
-      <c r="D255" s="7"/>
+      <c r="C255" s="17">
+        <v>0</v>
+      </c>
+      <c r="D255" s="18">
+        <v>0</v>
+      </c>
       <c r="E255" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C256" s="16"/>
-      <c r="D256" s="7"/>
+      <c r="C256" s="17">
+        <v>0</v>
+      </c>
+      <c r="D256" s="18">
+        <v>0</v>
+      </c>
       <c r="E256" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>256</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="16"/>
-      <c r="D257" s="7"/>
+      <c r="C257" s="17">
+        <v>0</v>
+      </c>
+      <c r="D257" s="18">
+        <v>0</v>
+      </c>
       <c r="E257" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>257</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C258" s="16"/>
-      <c r="D258" s="7"/>
+      <c r="C258" s="17">
+        <v>0</v>
+      </c>
+      <c r="D258" s="18">
+        <v>0</v>
+      </c>
       <c r="E258" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>258</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C259" s="16"/>
-      <c r="D259" s="7"/>
+      <c r="C259" s="17">
+        <v>0</v>
+      </c>
+      <c r="D259" s="18">
+        <v>0</v>
+      </c>
       <c r="E259" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C260" s="16"/>
-      <c r="D260" s="7"/>
+      <c r="C260" s="17">
+        <v>0</v>
+      </c>
+      <c r="D260" s="18">
+        <v>0</v>
+      </c>
       <c r="E260" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C261" s="15"/>
-      <c r="D261" s="2"/>
+      <c r="C261" s="19">
+        <v>0</v>
+      </c>
+      <c r="D261" s="20">
+        <v>0</v>
+      </c>
       <c r="E261" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C262" s="15"/>
-      <c r="D262" s="2"/>
+      <c r="C262" s="19">
+        <v>0</v>
+      </c>
+      <c r="D262" s="20">
+        <v>0</v>
+      </c>
       <c r="E262" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C263" s="15"/>
-      <c r="D263" s="2"/>
+      <c r="C263" s="19">
+        <v>0</v>
+      </c>
+      <c r="D263" s="20">
+        <v>0</v>
+      </c>
       <c r="E263" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C264" s="15"/>
-      <c r="D264" s="2"/>
+      <c r="C264" s="19">
+        <v>0</v>
+      </c>
+      <c r="D264" s="20">
+        <v>0</v>
+      </c>
       <c r="E264" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C265" s="15"/>
-      <c r="D265" s="2"/>
+      <c r="C265" s="19">
+        <v>0</v>
+      </c>
+      <c r="D265" s="20">
+        <v>0</v>
+      </c>
       <c r="E265" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C266" s="15"/>
-      <c r="D266" s="2"/>
+      <c r="C266" s="19">
+        <v>0</v>
+      </c>
+      <c r="D266" s="20">
+        <v>0</v>
+      </c>
       <c r="E266" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="15"/>
-      <c r="D267" s="2"/>
+      <c r="C267" s="19">
+        <v>0</v>
+      </c>
+      <c r="D267" s="20">
+        <v>0</v>
+      </c>
       <c r="E267" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C268" s="15"/>
-      <c r="D268" s="2"/>
+      <c r="C268" s="19">
+        <v>0</v>
+      </c>
+      <c r="D268" s="20">
+        <v>0</v>
+      </c>
       <c r="E268" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C269" s="15"/>
-      <c r="D269" s="2"/>
+      <c r="C269" s="19">
+        <v>0</v>
+      </c>
+      <c r="D269" s="20">
+        <v>0</v>
+      </c>
       <c r="E269" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="14">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C270" s="15"/>
-      <c r="D270" s="2"/>
+      <c r="C270" s="19">
+        <v>0</v>
+      </c>
+      <c r="D270" s="20">
+        <v>0</v>
+      </c>
       <c r="E270" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="14">
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C271" s="16"/>
-      <c r="D271" s="7"/>
+      <c r="C271" s="17">
+        <v>0</v>
+      </c>
+      <c r="D271" s="18">
+        <v>0</v>
+      </c>
       <c r="E271" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C272" s="16"/>
-      <c r="D272" s="7"/>
+      <c r="C272" s="17">
+        <v>0</v>
+      </c>
+      <c r="D272" s="18">
+        <v>0</v>
+      </c>
       <c r="E272" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C273" s="16"/>
-      <c r="D273" s="7"/>
+      <c r="C273" s="17">
+        <v>0</v>
+      </c>
+      <c r="D273" s="18">
+        <v>0</v>
+      </c>
       <c r="E273" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C274" s="16"/>
-      <c r="D274" s="7"/>
+      <c r="C274" s="17">
+        <v>0</v>
+      </c>
+      <c r="D274" s="18">
+        <v>0</v>
+      </c>
       <c r="E274" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>274</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C275" s="16"/>
-      <c r="D275" s="7"/>
+      <c r="C275" s="17">
+        <v>0</v>
+      </c>
+      <c r="D275" s="18">
+        <v>0</v>
+      </c>
       <c r="E275" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C276" s="16"/>
-      <c r="D276" s="7"/>
+      <c r="C276" s="17">
+        <v>0</v>
+      </c>
+      <c r="D276" s="18">
+        <v>0</v>
+      </c>
       <c r="E276" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="14">
         <v>276</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="16"/>
-      <c r="D277" s="7"/>
+      <c r="C277" s="17">
+        <v>0</v>
+      </c>
+      <c r="D277" s="18">
+        <v>0</v>
+      </c>
       <c r="E277" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="14">
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C278" s="16"/>
-      <c r="D278" s="7"/>
+      <c r="C278" s="17">
+        <v>0</v>
+      </c>
+      <c r="D278" s="18">
+        <v>0</v>
+      </c>
       <c r="E278" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="14">
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C279" s="16"/>
-      <c r="D279" s="7"/>
+      <c r="C279" s="17">
+        <v>0</v>
+      </c>
+      <c r="D279" s="18">
+        <v>0</v>
+      </c>
       <c r="E279" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C280" s="16"/>
-      <c r="D280" s="7"/>
+      <c r="C280" s="17">
+        <v>0</v>
+      </c>
+      <c r="D280" s="18">
+        <v>0</v>
+      </c>
       <c r="E280" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C281" s="15"/>
-      <c r="D281" s="2"/>
+      <c r="C281" s="19">
+        <v>0</v>
+      </c>
+      <c r="D281" s="20">
+        <v>0</v>
+      </c>
       <c r="E281" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C282" s="15"/>
-      <c r="D282" s="2"/>
+      <c r="C282" s="19">
+        <v>0</v>
+      </c>
+      <c r="D282" s="20">
+        <v>0</v>
+      </c>
       <c r="E282" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C283" s="15"/>
-      <c r="D283" s="2"/>
+      <c r="C283" s="19">
+        <v>0</v>
+      </c>
+      <c r="D283" s="20">
+        <v>0</v>
+      </c>
       <c r="E283" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C284" s="15"/>
-      <c r="D284" s="2"/>
+      <c r="C284" s="19">
+        <v>0</v>
+      </c>
+      <c r="D284" s="20">
+        <v>0</v>
+      </c>
       <c r="E284" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="14">
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C285" s="15"/>
-      <c r="D285" s="2"/>
+      <c r="C285" s="19">
+        <v>0</v>
+      </c>
+      <c r="D285" s="20">
+        <v>0</v>
+      </c>
       <c r="E285" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="14">
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C286" s="15"/>
-      <c r="D286" s="2"/>
+      <c r="C286" s="19">
+        <v>0</v>
+      </c>
+      <c r="D286" s="20">
+        <v>0</v>
+      </c>
       <c r="E286" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C287" s="15"/>
-      <c r="D287" s="2"/>
+      <c r="C287" s="19">
+        <v>0</v>
+      </c>
+      <c r="D287" s="20">
+        <v>0</v>
+      </c>
       <c r="E287" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C288" s="15"/>
-      <c r="D288" s="2"/>
+      <c r="C288" s="19">
+        <v>0</v>
+      </c>
+      <c r="D288" s="20">
+        <v>0</v>
+      </c>
       <c r="E288" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C289" s="15"/>
-      <c r="D289" s="2"/>
+      <c r="C289" s="19">
+        <v>0</v>
+      </c>
+      <c r="D289" s="20">
+        <v>0</v>
+      </c>
       <c r="E289" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C290" s="15"/>
-      <c r="D290" s="2"/>
+      <c r="C290" s="19">
+        <v>0</v>
+      </c>
+      <c r="D290" s="20">
+        <v>0</v>
+      </c>
       <c r="E290" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C291" s="16"/>
-      <c r="D291" s="7"/>
+      <c r="C291" s="17">
+        <v>0</v>
+      </c>
+      <c r="D291" s="18">
+        <v>0</v>
+      </c>
       <c r="E291" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="14">
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C292" s="16"/>
-      <c r="D292" s="7"/>
+      <c r="C292" s="17">
+        <v>0</v>
+      </c>
+      <c r="D292" s="18">
+        <v>0</v>
+      </c>
       <c r="E292" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="14">
         <v>292</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C293" s="16"/>
-      <c r="D293" s="7"/>
+      <c r="C293" s="17">
+        <v>0</v>
+      </c>
+      <c r="D293" s="18">
+        <v>0</v>
+      </c>
       <c r="E293" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="14">
         <v>293</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C294" s="16"/>
-      <c r="D294" s="7"/>
+      <c r="C294" s="17">
+        <v>0</v>
+      </c>
+      <c r="D294" s="18">
+        <v>0</v>
+      </c>
       <c r="E294" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="14">
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C295" s="16"/>
-      <c r="D295" s="7"/>
+      <c r="C295" s="17">
+        <v>0</v>
+      </c>
+      <c r="D295" s="18">
+        <v>0</v>
+      </c>
       <c r="E295" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C296" s="16"/>
-      <c r="D296" s="7"/>
+      <c r="C296" s="17">
+        <v>0</v>
+      </c>
+      <c r="D296" s="18">
+        <v>0</v>
+      </c>
       <c r="E296" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C297" s="16"/>
-      <c r="D297" s="7"/>
+      <c r="C297" s="17">
+        <v>0</v>
+      </c>
+      <c r="D297" s="18">
+        <v>0</v>
+      </c>
       <c r="E297" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="14">
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C298" s="16"/>
-      <c r="D298" s="7"/>
+      <c r="C298" s="17">
+        <v>0</v>
+      </c>
+      <c r="D298" s="18">
+        <v>0</v>
+      </c>
       <c r="E298" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="14">
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C299" s="16"/>
-      <c r="D299" s="7"/>
+      <c r="C299" s="17">
+        <v>0</v>
+      </c>
+      <c r="D299" s="18">
+        <v>0</v>
+      </c>
       <c r="E299" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="14">
         <v>299</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C300" s="16"/>
-      <c r="D300" s="7"/>
+      <c r="C300" s="17">
+        <v>0</v>
+      </c>
+      <c r="D300" s="18">
+        <v>0</v>
+      </c>
       <c r="E300" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="14">
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C301" s="15"/>
-      <c r="D301" s="2"/>
+      <c r="C301" s="19">
+        <v>0</v>
+      </c>
+      <c r="D301" s="20">
+        <v>0</v>
+      </c>
       <c r="E301" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="14">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C302" s="15"/>
-      <c r="D302" s="2"/>
+      <c r="C302" s="19">
+        <v>0</v>
+      </c>
+      <c r="D302" s="20">
+        <v>0</v>
+      </c>
       <c r="E302" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="14">
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="15"/>
-      <c r="D303" s="2"/>
+      <c r="C303" s="19">
+        <v>0</v>
+      </c>
+      <c r="D303" s="20">
+        <v>0</v>
+      </c>
       <c r="E303" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C304" s="15"/>
-      <c r="D304" s="2"/>
+      <c r="C304" s="19">
+        <v>0</v>
+      </c>
+      <c r="D304" s="20">
+        <v>0</v>
+      </c>
       <c r="E304" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C305" s="15"/>
-      <c r="D305" s="2"/>
+      <c r="C305" s="19">
+        <v>0</v>
+      </c>
+      <c r="D305" s="20">
+        <v>0</v>
+      </c>
       <c r="E305" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C306" s="15"/>
-      <c r="D306" s="2"/>
+      <c r="C306" s="19">
+        <v>0</v>
+      </c>
+      <c r="D306" s="20">
+        <v>0</v>
+      </c>
       <c r="E306" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C307" s="15"/>
-      <c r="D307" s="2"/>
+      <c r="C307" s="19">
+        <v>0</v>
+      </c>
+      <c r="D307" s="20">
+        <v>0</v>
+      </c>
       <c r="E307" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="14">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C308" s="15"/>
-      <c r="D308" s="2"/>
+      <c r="C308" s="19">
+        <v>0</v>
+      </c>
+      <c r="D308" s="20">
+        <v>0</v>
+      </c>
       <c r="E308" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="15"/>
-      <c r="D309" s="2"/>
+      <c r="C309" s="19">
+        <v>0</v>
+      </c>
+      <c r="D309" s="20">
+        <v>0</v>
+      </c>
       <c r="E309" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C310" s="15"/>
-      <c r="D310" s="2"/>
+      <c r="C310" s="19">
+        <v>0</v>
+      </c>
+      <c r="D310" s="20">
+        <v>0</v>
+      </c>
       <c r="E310" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="14">
         <v>310</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C311" s="16"/>
-      <c r="D311" s="7"/>
+      <c r="C311" s="17">
+        <v>0</v>
+      </c>
+      <c r="D311" s="18">
+        <v>0</v>
+      </c>
       <c r="E311" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="14">
         <v>311</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C312" s="16"/>
-      <c r="D312" s="7"/>
+      <c r="C312" s="17">
+        <v>0</v>
+      </c>
+      <c r="D312" s="18">
+        <v>0</v>
+      </c>
       <c r="E312" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C313" s="16"/>
-      <c r="D313" s="7"/>
+      <c r="C313" s="17">
+        <v>0</v>
+      </c>
+      <c r="D313" s="18">
+        <v>0</v>
+      </c>
       <c r="E313" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="14">
         <v>313</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="16"/>
-      <c r="D314" s="7"/>
+      <c r="C314" s="17">
+        <v>0</v>
+      </c>
+      <c r="D314" s="18">
+        <v>0</v>
+      </c>
       <c r="E314" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C315" s="16"/>
-      <c r="D315" s="7"/>
+      <c r="C315" s="17">
+        <v>0</v>
+      </c>
+      <c r="D315" s="18">
+        <v>0</v>
+      </c>
       <c r="E315" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>315</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C316" s="16"/>
-      <c r="D316" s="7"/>
+      <c r="C316" s="17">
+        <v>0</v>
+      </c>
+      <c r="D316" s="18">
+        <v>0</v>
+      </c>
       <c r="E316" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C317" s="16"/>
-      <c r="D317" s="7"/>
+      <c r="C317" s="17">
+        <v>0</v>
+      </c>
+      <c r="D317" s="18">
+        <v>0</v>
+      </c>
       <c r="E317" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>317</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="16"/>
-      <c r="D318" s="7"/>
+      <c r="C318" s="17">
+        <v>0</v>
+      </c>
+      <c r="D318" s="18">
+        <v>0</v>
+      </c>
       <c r="E318" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C319" s="16"/>
-      <c r="D319" s="7"/>
+      <c r="C319" s="17">
+        <v>0</v>
+      </c>
+      <c r="D319" s="18">
+        <v>0</v>
+      </c>
       <c r="E319" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>319</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C320" s="16"/>
-      <c r="D320" s="7"/>
+      <c r="C320" s="17">
+        <v>0</v>
+      </c>
+      <c r="D320" s="18">
+        <v>0</v>
+      </c>
       <c r="E320" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C321" s="15"/>
-      <c r="D321" s="2"/>
+      <c r="C321" s="19">
+        <v>0</v>
+      </c>
+      <c r="D321" s="20">
+        <v>0</v>
+      </c>
       <c r="E321" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C322" s="15"/>
-      <c r="D322" s="2"/>
+      <c r="C322" s="19">
+        <v>0</v>
+      </c>
+      <c r="D322" s="20">
+        <v>0</v>
+      </c>
       <c r="E322" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C323" s="15"/>
-      <c r="D323" s="2"/>
+      <c r="C323" s="19">
+        <v>0</v>
+      </c>
+      <c r="D323" s="20">
+        <v>0</v>
+      </c>
       <c r="E323" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C324" s="15"/>
-      <c r="D324" s="2"/>
+      <c r="C324" s="19">
+        <v>0</v>
+      </c>
+      <c r="D324" s="20">
+        <v>0</v>
+      </c>
       <c r="E324" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C325" s="15"/>
-      <c r="D325" s="2"/>
+      <c r="C325" s="19">
+        <v>0</v>
+      </c>
+      <c r="D325" s="20">
+        <v>0</v>
+      </c>
       <c r="E325" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C326" s="15"/>
-      <c r="D326" s="2"/>
+      <c r="C326" s="19">
+        <v>0</v>
+      </c>
+      <c r="D326" s="20">
+        <v>0</v>
+      </c>
       <c r="E326" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C327" s="15"/>
-      <c r="D327" s="2"/>
+      <c r="C327" s="19">
+        <v>0</v>
+      </c>
+      <c r="D327" s="20">
+        <v>0</v>
+      </c>
       <c r="E327" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C328" s="15"/>
-      <c r="D328" s="2"/>
+      <c r="C328" s="19">
+        <v>0</v>
+      </c>
+      <c r="D328" s="20">
+        <v>0</v>
+      </c>
       <c r="E328" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C329" s="15"/>
-      <c r="D329" s="2"/>
+      <c r="C329" s="19">
+        <v>0</v>
+      </c>
+      <c r="D329" s="20">
+        <v>0</v>
+      </c>
       <c r="E329" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C330" s="15"/>
-      <c r="D330" s="2"/>
+      <c r="C330" s="19">
+        <v>0</v>
+      </c>
+      <c r="D330" s="20">
+        <v>0</v>
+      </c>
       <c r="E330" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>330</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C331" s="16"/>
-      <c r="D331" s="7"/>
+      <c r="C331" s="17">
+        <v>0</v>
+      </c>
+      <c r="D331" s="18">
+        <v>0</v>
+      </c>
       <c r="E331" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C332" s="16"/>
-      <c r="D332" s="7"/>
+      <c r="C332" s="17">
+        <v>0</v>
+      </c>
+      <c r="D332" s="18">
+        <v>0</v>
+      </c>
       <c r="E332" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="14">
         <v>332</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C333" s="16"/>
-      <c r="D333" s="7"/>
+      <c r="C333" s="17">
+        <v>0</v>
+      </c>
+      <c r="D333" s="18">
+        <v>0</v>
+      </c>
       <c r="E333" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="14">
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C334" s="16"/>
-      <c r="D334" s="7"/>
+      <c r="C334" s="17">
+        <v>0</v>
+      </c>
+      <c r="D334" s="18">
+        <v>0</v>
+      </c>
       <c r="E334" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="14">
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C335" s="16"/>
-      <c r="D335" s="7"/>
+      <c r="C335" s="17">
+        <v>0</v>
+      </c>
+      <c r="D335" s="18">
+        <v>0</v>
+      </c>
       <c r="E335" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="14">
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C336" s="16"/>
-      <c r="D336" s="7"/>
+      <c r="C336" s="17">
+        <v>0</v>
+      </c>
+      <c r="D336" s="18">
+        <v>0</v>
+      </c>
       <c r="E336" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C337" s="16"/>
-      <c r="D337" s="7"/>
+      <c r="C337" s="17">
+        <v>0</v>
+      </c>
+      <c r="D337" s="18">
+        <v>0</v>
+      </c>
       <c r="E337" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C338" s="16"/>
-      <c r="D338" s="7"/>
+      <c r="C338" s="17">
+        <v>0</v>
+      </c>
+      <c r="D338" s="18">
+        <v>0</v>
+      </c>
       <c r="E338" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>338</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C339" s="16"/>
-      <c r="D339" s="7"/>
+      <c r="C339" s="17">
+        <v>0</v>
+      </c>
+      <c r="D339" s="18">
+        <v>0</v>
+      </c>
       <c r="E339" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>339</v>
       </c>
       <c r="B340" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C340" s="16"/>
-      <c r="D340" s="7"/>
+      <c r="C340" s="17">
+        <v>0</v>
+      </c>
+      <c r="D340" s="18">
+        <v>0</v>
+      </c>
       <c r="E340" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C341" s="15"/>
-      <c r="D341" s="2"/>
+      <c r="C341" s="19">
+        <v>0</v>
+      </c>
+      <c r="D341" s="20">
+        <v>0</v>
+      </c>
       <c r="E341" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C342" s="15"/>
-      <c r="D342" s="2"/>
+      <c r="C342" s="19">
+        <v>0</v>
+      </c>
+      <c r="D342" s="20">
+        <v>0</v>
+      </c>
       <c r="E342" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C343" s="15"/>
-      <c r="D343" s="2"/>
+      <c r="C343" s="19">
+        <v>0</v>
+      </c>
+      <c r="D343" s="20">
+        <v>0</v>
+      </c>
       <c r="E343" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C344" s="15"/>
-      <c r="D344" s="2"/>
+      <c r="C344" s="19">
+        <v>0</v>
+      </c>
+      <c r="D344" s="20">
+        <v>0</v>
+      </c>
       <c r="E344" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C345" s="15"/>
-      <c r="D345" s="2"/>
+      <c r="C345" s="19">
+        <v>0</v>
+      </c>
+      <c r="D345" s="20">
+        <v>0</v>
+      </c>
       <c r="E345" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="15"/>
-      <c r="D346" s="2"/>
+      <c r="C346" s="19">
+        <v>0</v>
+      </c>
+      <c r="D346" s="20">
+        <v>0</v>
+      </c>
       <c r="E346" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C347" s="15"/>
-      <c r="D347" s="2"/>
+      <c r="C347" s="19">
+        <v>0</v>
+      </c>
+      <c r="D347" s="20">
+        <v>0</v>
+      </c>
       <c r="E347" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C348" s="15"/>
-      <c r="D348" s="2"/>
+      <c r="C348" s="19">
+        <v>0</v>
+      </c>
+      <c r="D348" s="20">
+        <v>0</v>
+      </c>
       <c r="E348" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C349" s="15"/>
-      <c r="D349" s="2"/>
+      <c r="C349" s="19">
+        <v>0</v>
+      </c>
+      <c r="D349" s="20">
+        <v>0</v>
+      </c>
       <c r="E349" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C350" s="15"/>
-      <c r="D350" s="2"/>
+      <c r="C350" s="19">
+        <v>0</v>
+      </c>
+      <c r="D350" s="20">
+        <v>0</v>
+      </c>
       <c r="E350" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C351" s="16"/>
-      <c r="D351" s="7"/>
+      <c r="C351" s="17">
+        <v>0</v>
+      </c>
+      <c r="D351" s="18">
+        <v>0</v>
+      </c>
       <c r="E351" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C352" s="16"/>
-      <c r="D352" s="7"/>
+      <c r="C352" s="17">
+        <v>0</v>
+      </c>
+      <c r="D352" s="18">
+        <v>0</v>
+      </c>
       <c r="E352" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>352</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C353" s="16"/>
-      <c r="D353" s="7"/>
+      <c r="C353" s="17">
+        <v>0</v>
+      </c>
+      <c r="D353" s="18">
+        <v>0</v>
+      </c>
       <c r="E353" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C354" s="16"/>
-      <c r="D354" s="7"/>
+      <c r="C354" s="17">
+        <v>0</v>
+      </c>
+      <c r="D354" s="18">
+        <v>0</v>
+      </c>
       <c r="E354" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>354</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C355" s="16"/>
-      <c r="D355" s="7"/>
+      <c r="C355" s="17">
+        <v>0</v>
+      </c>
+      <c r="D355" s="18">
+        <v>0</v>
+      </c>
       <c r="E355" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C356" s="16"/>
-      <c r="D356" s="7"/>
+      <c r="C356" s="17">
+        <v>0</v>
+      </c>
+      <c r="D356" s="18">
+        <v>0</v>
+      </c>
       <c r="E356" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>356</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C357" s="16"/>
-      <c r="D357" s="7"/>
+      <c r="C357" s="17">
+        <v>0</v>
+      </c>
+      <c r="D357" s="18">
+        <v>0</v>
+      </c>
       <c r="E357" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="14">
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C358" s="16"/>
-      <c r="D358" s="7"/>
+      <c r="C358" s="17">
+        <v>0</v>
+      </c>
+      <c r="D358" s="18">
+        <v>0</v>
+      </c>
       <c r="E358" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="14">
         <v>358</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C359" s="16"/>
-      <c r="D359" s="7"/>
+      <c r="C359" s="17">
+        <v>0</v>
+      </c>
+      <c r="D359" s="18">
+        <v>0</v>
+      </c>
       <c r="E359" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="14">
         <v>359</v>
       </c>
       <c r="B360" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C360" s="16"/>
-      <c r="D360" s="7"/>
+      <c r="C360" s="17">
+        <v>0</v>
+      </c>
+      <c r="D360" s="18">
+        <v>0</v>
+      </c>
       <c r="E360" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="14">
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C361" s="15"/>
-      <c r="D361" s="2"/>
+      <c r="C361" s="19">
+        <v>0</v>
+      </c>
+      <c r="D361" s="20">
+        <v>0</v>
+      </c>
       <c r="E361" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="14">
         <v>361</v>
       </c>
       <c r="B362" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C362" s="15"/>
-      <c r="D362" s="2"/>
+      <c r="C362" s="19">
+        <v>0</v>
+      </c>
+      <c r="D362" s="20">
+        <v>0</v>
+      </c>
       <c r="E362" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="14">
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C363" s="15"/>
-      <c r="D363" s="2"/>
+      <c r="C363" s="19">
+        <v>0</v>
+      </c>
+      <c r="D363" s="20">
+        <v>0</v>
+      </c>
       <c r="E363" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="14">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C364" s="15"/>
-      <c r="D364" s="2"/>
+      <c r="C364" s="19">
+        <v>0</v>
+      </c>
+      <c r="D364" s="20">
+        <v>0</v>
+      </c>
       <c r="E364" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="14">
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C365" s="15"/>
-      <c r="D365" s="2"/>
+      <c r="C365" s="19">
+        <v>0</v>
+      </c>
+      <c r="D365" s="20">
+        <v>0</v>
+      </c>
       <c r="E365" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="14">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C366" s="15"/>
-      <c r="D366" s="2"/>
+      <c r="C366" s="19">
+        <v>0</v>
+      </c>
+      <c r="D366" s="20">
+        <v>0</v>
+      </c>
       <c r="E366" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="14">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C367" s="15"/>
-      <c r="D367" s="2"/>
+      <c r="C367" s="19">
+        <v>0</v>
+      </c>
+      <c r="D367" s="20">
+        <v>0</v>
+      </c>
       <c r="E367" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C368" s="15"/>
-      <c r="D368" s="2"/>
+      <c r="C368" s="19">
+        <v>0</v>
+      </c>
+      <c r="D368" s="20">
+        <v>0</v>
+      </c>
       <c r="E368" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C369" s="15"/>
-      <c r="D369" s="2"/>
+      <c r="C369" s="19">
+        <v>0</v>
+      </c>
+      <c r="D369" s="20">
+        <v>0</v>
+      </c>
       <c r="E369" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>369</v>
       </c>
       <c r="B370" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C370" s="15"/>
-      <c r="D370" s="2"/>
+      <c r="C370" s="19">
+        <v>0</v>
+      </c>
+      <c r="D370" s="20">
+        <v>0</v>
+      </c>
       <c r="E370" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="14">
         <v>370</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C371" s="16"/>
-      <c r="D371" s="7"/>
+      <c r="C371" s="17">
+        <v>0</v>
+      </c>
+      <c r="D371" s="18">
+        <v>0</v>
+      </c>
       <c r="E371" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>371</v>
       </c>
       <c r="B372" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C372" s="16"/>
-      <c r="D372" s="7"/>
+      <c r="C372" s="17">
+        <v>0</v>
+      </c>
+      <c r="D372" s="18">
+        <v>0</v>
+      </c>
       <c r="E372" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="14">
         <v>372</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C373" s="16"/>
-      <c r="D373" s="7"/>
+      <c r="C373" s="17">
+        <v>0</v>
+      </c>
+      <c r="D373" s="18">
+        <v>0</v>
+      </c>
       <c r="E373" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>373</v>
       </c>
       <c r="B374" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C374" s="16"/>
-      <c r="D374" s="7"/>
+      <c r="C374" s="17">
+        <v>0</v>
+      </c>
+      <c r="D374" s="18">
+        <v>0</v>
+      </c>
       <c r="E374" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>374</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C375" s="16"/>
-      <c r="D375" s="7"/>
+      <c r="C375" s="17">
+        <v>0</v>
+      </c>
+      <c r="D375" s="18">
+        <v>0</v>
+      </c>
       <c r="E375" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>375</v>
       </c>
       <c r="B376" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C376" s="16"/>
-      <c r="D376" s="7"/>
+      <c r="C376" s="17">
+        <v>0</v>
+      </c>
+      <c r="D376" s="18">
+        <v>0</v>
+      </c>
       <c r="E376" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>376</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C377" s="16"/>
-      <c r="D377" s="7"/>
+      <c r="C377" s="17">
+        <v>0</v>
+      </c>
+      <c r="D377" s="18">
+        <v>0</v>
+      </c>
       <c r="E377" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C378" s="16"/>
-      <c r="D378" s="7"/>
+      <c r="C378" s="17">
+        <v>0</v>
+      </c>
+      <c r="D378" s="18">
+        <v>0</v>
+      </c>
       <c r="E378" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="14">
         <v>378</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C379" s="16"/>
-      <c r="D379" s="7"/>
+      <c r="C379" s="17">
+        <v>0</v>
+      </c>
+      <c r="D379" s="18">
+        <v>0</v>
+      </c>
       <c r="E379" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="14">
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C380" s="16"/>
-      <c r="D380" s="7"/>
+      <c r="C380" s="17">
+        <v>0</v>
+      </c>
+      <c r="D380" s="18">
+        <v>0</v>
+      </c>
       <c r="E380" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="F380" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B380">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>$I$4</formula>
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F380">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E380">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$I$4</formula>
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Placar errado" error="Por favor, digite um placar válido. " sqref="D1:D380">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Placar errado" error="Por favor, digite um placar válido. " sqref="D1:D210">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Placar inválido" error="Favor inserir um placar válido." sqref="C1:C380">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Placar inválido" error="Favor inserir um placar válido." sqref="C1:C380 D211:D380">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/brasileirao/src/arquivos/partidas.xlsx
+++ b/brasileirao/src/arquivos/partidas.xlsx
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -277,361 +277,15 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="143">
     <dxf>
       <font>
         <b/>
@@ -1911,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12429,10 +12083,10 @@
       <c r="B211" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="17">
-        <v>0</v>
-      </c>
-      <c r="D211" s="18">
+      <c r="C211" s="16">
+        <v>1</v>
+      </c>
+      <c r="D211" s="26">
         <v>0</v>
       </c>
       <c r="E211" s="8" t="s">
@@ -12441,8 +12095,8 @@
       <c r="F211" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G211" s="22">
-        <v>1000</v>
+      <c r="G211" s="24">
+        <v>200</v>
       </c>
       <c r="H211" s="22">
         <v>1000</v>
@@ -12479,10 +12133,10 @@
       <c r="B212" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C212" s="17">
-        <v>0</v>
-      </c>
-      <c r="D212" s="18">
+      <c r="C212" s="16">
+        <v>5</v>
+      </c>
+      <c r="D212" s="26">
         <v>0</v>
       </c>
       <c r="E212" s="10" t="s">
@@ -12491,20 +12145,20 @@
       <c r="F212" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G212" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H212" s="22">
-        <v>1000</v>
-      </c>
-      <c r="I212" s="22">
-        <v>1000</v>
-      </c>
-      <c r="J212" s="22">
-        <v>1000</v>
-      </c>
-      <c r="K212" s="22">
-        <v>1000</v>
+      <c r="G212" s="24">
+        <v>200</v>
+      </c>
+      <c r="H212" s="24">
+        <v>200</v>
+      </c>
+      <c r="I212" s="24">
+        <v>200</v>
+      </c>
+      <c r="J212" s="24">
+        <v>200</v>
+      </c>
+      <c r="K212" s="24">
+        <v>200</v>
       </c>
       <c r="L212" s="22">
         <v>1000</v>
@@ -12529,10 +12183,10 @@
       <c r="B213" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="17">
-        <v>0</v>
-      </c>
-      <c r="D213" s="18">
+      <c r="C213" s="16">
+        <v>3</v>
+      </c>
+      <c r="D213" s="26">
         <v>0</v>
       </c>
       <c r="E213" s="8" t="s">
@@ -12541,14 +12195,14 @@
       <c r="F213" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G213" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H213" s="22">
-        <v>1000</v>
-      </c>
-      <c r="I213" s="22">
-        <v>1000</v>
+      <c r="G213" s="24">
+        <v>200</v>
+      </c>
+      <c r="H213" s="24">
+        <v>200</v>
+      </c>
+      <c r="I213" s="24">
+        <v>200</v>
       </c>
       <c r="J213" s="22">
         <v>1000</v>
@@ -12579,11 +12233,11 @@
       <c r="B214" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="17">
-        <v>0</v>
-      </c>
-      <c r="D214" s="18">
-        <v>0</v>
+      <c r="C214" s="16">
+        <v>0</v>
+      </c>
+      <c r="D214" s="26">
+        <v>1</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>0</v>
@@ -12591,8 +12245,8 @@
       <c r="F214" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G214" s="22">
-        <v>1000</v>
+      <c r="G214" s="24">
+        <v>200</v>
       </c>
       <c r="H214" s="22">
         <v>1000</v>
@@ -12629,10 +12283,10 @@
       <c r="B215" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C215" s="17">
-        <v>0</v>
-      </c>
-      <c r="D215" s="18">
+      <c r="C215" s="16">
+        <v>0</v>
+      </c>
+      <c r="D215" s="26">
         <v>0</v>
       </c>
       <c r="E215" s="8" t="s">
@@ -12679,10 +12333,10 @@
       <c r="B216" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C216" s="17">
-        <v>0</v>
-      </c>
-      <c r="D216" s="18">
+      <c r="C216" s="16">
+        <v>3</v>
+      </c>
+      <c r="D216" s="26">
         <v>0</v>
       </c>
       <c r="E216" s="10" t="s">
@@ -12691,14 +12345,14 @@
       <c r="F216" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G216" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H216" s="22">
-        <v>1000</v>
-      </c>
-      <c r="I216" s="22">
-        <v>1000</v>
+      <c r="G216" s="24">
+        <v>200</v>
+      </c>
+      <c r="H216" s="24">
+        <v>200</v>
+      </c>
+      <c r="I216" s="24">
+        <v>200</v>
       </c>
       <c r="J216" s="22">
         <v>1000</v>
@@ -12729,11 +12383,11 @@
       <c r="B217" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="17">
-        <v>0</v>
-      </c>
-      <c r="D217" s="18">
-        <v>0</v>
+      <c r="C217" s="16">
+        <v>0</v>
+      </c>
+      <c r="D217" s="26">
+        <v>1</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>6</v>
@@ -12741,8 +12395,8 @@
       <c r="F217" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G217" s="22">
-        <v>1000</v>
+      <c r="G217" s="24">
+        <v>200</v>
       </c>
       <c r="H217" s="22">
         <v>1000</v>
@@ -12779,11 +12433,11 @@
       <c r="B218" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C218" s="17">
-        <v>0</v>
-      </c>
-      <c r="D218" s="18">
-        <v>0</v>
+      <c r="C218" s="16">
+        <v>1</v>
+      </c>
+      <c r="D218" s="26">
+        <v>1</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>8</v>
@@ -12791,11 +12445,11 @@
       <c r="F218" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G218" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H218" s="22">
-        <v>1000</v>
+      <c r="G218" s="24">
+        <v>200</v>
+      </c>
+      <c r="H218" s="24">
+        <v>200</v>
       </c>
       <c r="I218" s="22">
         <v>1000</v>
@@ -12829,10 +12483,10 @@
       <c r="B219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="17">
-        <v>0</v>
-      </c>
-      <c r="D219" s="18">
+      <c r="C219" s="16">
+        <v>1</v>
+      </c>
+      <c r="D219" s="26">
         <v>0</v>
       </c>
       <c r="E219" s="8" t="s">
@@ -12841,8 +12495,8 @@
       <c r="F219" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G219" s="22">
-        <v>1000</v>
+      <c r="G219" s="24">
+        <v>200</v>
       </c>
       <c r="H219" s="22">
         <v>1000</v>
@@ -12879,11 +12533,11 @@
       <c r="B220" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C220" s="17">
-        <v>0</v>
-      </c>
-      <c r="D220" s="18">
-        <v>0</v>
+      <c r="C220" s="16">
+        <v>0</v>
+      </c>
+      <c r="D220" s="26">
+        <v>1</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>1</v>
@@ -12891,8 +12545,8 @@
       <c r="F220" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G220" s="22">
-        <v>1000</v>
+      <c r="G220" s="24">
+        <v>200</v>
       </c>
       <c r="H220" s="22">
         <v>1000</v>
@@ -20924,616 +20578,661 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B380">
-    <cfRule type="cellIs" dxfId="192" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="239" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F380">
-    <cfRule type="cellIs" dxfId="191" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="237" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E380">
-    <cfRule type="cellIs" dxfId="190" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="236" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:P1">
-    <cfRule type="cellIs" dxfId="189" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="235" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:J3">
-    <cfRule type="cellIs" dxfId="188" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="234" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:P20">
-    <cfRule type="cellIs" dxfId="187" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="232" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:P30">
-    <cfRule type="cellIs" dxfId="186" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="231" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:P30">
-    <cfRule type="cellIs" dxfId="185" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="230" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="184" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="176" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="183" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="175" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:P2">
-    <cfRule type="cellIs" dxfId="182" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="122" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P3">
-    <cfRule type="cellIs" dxfId="181" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="121" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:P4">
-    <cfRule type="cellIs" dxfId="180" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="120" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="cellIs" dxfId="179" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="119" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:P10">
-    <cfRule type="cellIs" dxfId="178" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="118" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:P40">
-    <cfRule type="cellIs" dxfId="177" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="117" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:P50">
-    <cfRule type="cellIs" dxfId="176" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="116" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:P50">
-    <cfRule type="cellIs" dxfId="175" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:P60">
-    <cfRule type="cellIs" dxfId="174" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:P70">
-    <cfRule type="cellIs" dxfId="173" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="113" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:P70">
-    <cfRule type="cellIs" dxfId="172" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="112" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:P80">
-    <cfRule type="cellIs" dxfId="171" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="111" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:P90">
-    <cfRule type="cellIs" dxfId="170" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="110" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:P90">
-    <cfRule type="cellIs" dxfId="169" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="109" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:P100">
-    <cfRule type="cellIs" dxfId="168" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="108" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:P110">
-    <cfRule type="cellIs" dxfId="167" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:P110">
-    <cfRule type="cellIs" dxfId="166" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="106" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:P120">
-    <cfRule type="cellIs" dxfId="165" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="105" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121:P130">
-    <cfRule type="cellIs" dxfId="164" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="104" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:P130">
-    <cfRule type="cellIs" dxfId="163" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="103" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:P140">
-    <cfRule type="cellIs" dxfId="162" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="102" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G141:P150">
-    <cfRule type="cellIs" dxfId="161" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:P150">
-    <cfRule type="cellIs" dxfId="160" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151:P160">
-    <cfRule type="cellIs" dxfId="159" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:P170">
-    <cfRule type="cellIs" dxfId="158" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="98" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:P170">
-    <cfRule type="cellIs" dxfId="157" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="97" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180:P180 H171:P171 K172:P172 J173:P173 K174:P174 I175:P175 M176:P176 H177:P177 L178:P178 I179:P179">
-    <cfRule type="cellIs" dxfId="156" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="96" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:P187 J181:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
-    <cfRule type="cellIs" dxfId="155" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:P187 J182:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
-    <cfRule type="cellIs" dxfId="154" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="94" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:P191 L192:P192 H193:P194 K195:P195 J196:P197 H198:P200">
-    <cfRule type="cellIs" dxfId="153" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="93" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J210:P210 L201:P201 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
-    <cfRule type="cellIs" dxfId="152" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="92" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J210:P210 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
-    <cfRule type="cellIs" dxfId="151" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211:P220">
-    <cfRule type="cellIs" dxfId="150" priority="81" operator="equal">
+  <conditionalFormatting sqref="G215:P215 H211:P211 L212:P212 J213:P213 H214:P214 J216:P216 H217:P217 I218:P218 H219:P220">
+    <cfRule type="cellIs" dxfId="100" priority="90" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221:P230">
-    <cfRule type="cellIs" dxfId="149" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G222:P230">
-    <cfRule type="cellIs" dxfId="148" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G231:P240">
-    <cfRule type="cellIs" dxfId="147" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="87" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G241:P250">
-    <cfRule type="cellIs" dxfId="146" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:P250">
-    <cfRule type="cellIs" dxfId="145" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="85" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G251:P260">
-    <cfRule type="cellIs" dxfId="144" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="84" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261:P270">
-    <cfRule type="cellIs" dxfId="143" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262:P270">
-    <cfRule type="cellIs" dxfId="142" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G271:P280">
-    <cfRule type="cellIs" dxfId="141" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G281:P290">
-    <cfRule type="cellIs" dxfId="140" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="80" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G282:P290">
-    <cfRule type="cellIs" dxfId="139" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G291:P300">
-    <cfRule type="cellIs" dxfId="138" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="78" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301:P310">
-    <cfRule type="cellIs" dxfId="137" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:P310">
-    <cfRule type="cellIs" dxfId="136" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="76" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G311:P320">
-    <cfRule type="cellIs" dxfId="135" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G321:P330">
-    <cfRule type="cellIs" dxfId="134" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="74" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G322:P330">
-    <cfRule type="cellIs" dxfId="133" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G331:P340">
-    <cfRule type="cellIs" dxfId="132" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G341:P350">
-    <cfRule type="cellIs" dxfId="131" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342:P350">
-    <cfRule type="cellIs" dxfId="130" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G351:P360">
-    <cfRule type="cellIs" dxfId="129" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G361:P370">
-    <cfRule type="cellIs" dxfId="128" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="68" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G362:P370">
-    <cfRule type="cellIs" dxfId="127" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:P380">
-    <cfRule type="cellIs" dxfId="126" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="66" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="cellIs" dxfId="111" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:J172">
-    <cfRule type="cellIs" dxfId="109" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:I173">
-    <cfRule type="cellIs" dxfId="107" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:J174">
-    <cfRule type="cellIs" dxfId="105" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="62" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="cellIs" dxfId="103" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:L176">
-    <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177">
-    <cfRule type="cellIs" dxfId="99" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:K178">
-    <cfRule type="cellIs" dxfId="97" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="cellIs" dxfId="95" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:K180">
-    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="56" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:I181">
-    <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:I181">
-    <cfRule type="cellIs" dxfId="89" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:I182">
-    <cfRule type="cellIs" dxfId="87" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:I182">
-    <cfRule type="cellIs" dxfId="85" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="52" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:L183">
-    <cfRule type="cellIs" dxfId="83" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:L183">
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:I184">
-    <cfRule type="cellIs" dxfId="79" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:I184">
-    <cfRule type="cellIs" dxfId="77" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="48" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="cellIs" dxfId="75" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="cellIs" dxfId="73" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="cellIs" dxfId="71" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="cellIs" dxfId="69" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:I189">
-    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:I189">
-    <cfRule type="cellIs" dxfId="61" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="38" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:J191">
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192:K192">
-    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:G194">
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:J195">
-    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196:I196">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197:I197">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:G200">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201:K201">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201:K201">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:I204">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:I204">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:H205">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:H205">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G206">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G206">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G207:I207">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G207:I207">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G208:I208">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G208:I208">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G209:H209">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G209:H209">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G210:I210">
     <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G206">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+  <conditionalFormatting sqref="G210:I210">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G206">
+  <conditionalFormatting sqref="G211">
     <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:I207">
+  <conditionalFormatting sqref="G212:K212">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:I207">
+  <conditionalFormatting sqref="G213:I213">
     <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208:I208">
+  <conditionalFormatting sqref="G214">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208:I208">
+  <conditionalFormatting sqref="G216:I216">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:H209">
+  <conditionalFormatting sqref="G217">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:H209">
+  <conditionalFormatting sqref="G218:H218">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:I210">
+  <conditionalFormatting sqref="G219">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:I210">
+  <conditionalFormatting sqref="G220">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$J$4</formula>
     </cfRule>

--- a/brasileirao/src/arquivos/partidas.xlsx
+++ b/brasileirao/src/arquivos/partidas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="705" windowWidth="14220" windowHeight="13695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Rodadas" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,12 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -194,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -271,12 +265,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
@@ -285,77 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="133">
     <dxf>
       <font>
         <b/>
@@ -1565,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G220" sqref="G220"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,14 +9063,14 @@
       <c r="F152" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G152" s="24">
-        <v>200</v>
-      </c>
-      <c r="H152" s="24">
-        <v>200</v>
-      </c>
-      <c r="I152" s="24">
-        <v>200</v>
+      <c r="G152" s="22">
+        <v>18</v>
+      </c>
+      <c r="H152" s="22">
+        <v>19</v>
+      </c>
+      <c r="I152" s="22">
+        <v>148</v>
       </c>
       <c r="J152" s="22">
         <v>1000</v>
@@ -9195,17 +9113,17 @@
       <c r="F153" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G153" s="24">
-        <v>200</v>
-      </c>
-      <c r="H153" s="24">
-        <v>200</v>
-      </c>
-      <c r="I153" s="24">
-        <v>200</v>
-      </c>
-      <c r="J153" s="24">
-        <v>200</v>
+      <c r="G153" s="22">
+        <v>170</v>
+      </c>
+      <c r="H153" s="22">
+        <v>171</v>
+      </c>
+      <c r="I153" s="22">
+        <v>172</v>
+      </c>
+      <c r="J153" s="22">
+        <v>173</v>
       </c>
       <c r="K153" s="22">
         <v>1000</v>
@@ -9245,8 +9163,8 @@
       <c r="F154" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G154" s="24">
-        <v>200</v>
+      <c r="G154" s="22">
+        <v>164</v>
       </c>
       <c r="H154" s="22">
         <v>1000</v>
@@ -9295,8 +9213,8 @@
       <c r="F155" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G155" s="24">
-        <v>200</v>
+      <c r="G155" s="22">
+        <v>129</v>
       </c>
       <c r="H155" s="22">
         <v>1000</v>
@@ -9345,8 +9263,8 @@
       <c r="F156" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G156" s="24">
-        <v>200</v>
+      <c r="G156" s="22">
+        <v>120</v>
       </c>
       <c r="H156" s="22">
         <v>1000</v>
@@ -9445,14 +9363,14 @@
       <c r="F158" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G158" s="24">
-        <v>200</v>
-      </c>
-      <c r="H158" s="24">
-        <v>200</v>
-      </c>
-      <c r="I158" s="24">
-        <v>200</v>
+      <c r="G158" s="22">
+        <v>218</v>
+      </c>
+      <c r="H158" s="22">
+        <v>219</v>
+      </c>
+      <c r="I158" s="22">
+        <v>140</v>
       </c>
       <c r="J158" s="22">
         <v>1000</v>
@@ -9495,11 +9413,11 @@
       <c r="F159" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G159" s="24">
-        <v>200</v>
-      </c>
-      <c r="H159" s="24">
-        <v>200</v>
+      <c r="G159" s="22">
+        <v>184</v>
+      </c>
+      <c r="H159" s="22">
+        <v>185</v>
       </c>
       <c r="I159" s="22">
         <v>1000</v>
@@ -9545,17 +9463,17 @@
       <c r="F160" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G160" s="24">
-        <v>200</v>
-      </c>
-      <c r="H160" s="24">
-        <v>200</v>
-      </c>
-      <c r="I160" s="24">
-        <v>200</v>
-      </c>
-      <c r="J160" s="24">
-        <v>200</v>
+      <c r="G160" s="22">
+        <v>109</v>
+      </c>
+      <c r="H160" s="22">
+        <v>109</v>
+      </c>
+      <c r="I160" s="22">
+        <v>63</v>
+      </c>
+      <c r="J160" s="22">
+        <v>64</v>
       </c>
       <c r="K160" s="22">
         <v>1000</v>
@@ -9595,14 +9513,14 @@
       <c r="F161" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G161" s="25">
-        <v>200</v>
-      </c>
-      <c r="H161" s="25">
-        <v>200</v>
-      </c>
-      <c r="I161" s="25">
-        <v>200</v>
+      <c r="G161" s="21">
+        <v>172</v>
+      </c>
+      <c r="H161" s="21">
+        <v>173</v>
+      </c>
+      <c r="I161" s="21">
+        <v>174</v>
       </c>
       <c r="J161" s="21">
         <v>1000</v>
@@ -9645,11 +9563,11 @@
       <c r="F162" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G162" s="25">
-        <v>200</v>
-      </c>
-      <c r="H162" s="25">
-        <v>200</v>
+      <c r="G162" s="21">
+        <v>195</v>
+      </c>
+      <c r="H162" s="21">
+        <v>196</v>
       </c>
       <c r="I162" s="21">
         <v>1000</v>
@@ -9695,17 +9613,17 @@
       <c r="F163" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G163" s="25">
-        <v>200</v>
-      </c>
-      <c r="H163" s="25">
-        <v>200</v>
-      </c>
-      <c r="I163" s="25">
-        <v>200</v>
-      </c>
-      <c r="J163" s="25">
-        <v>200</v>
+      <c r="G163" s="21">
+        <v>28</v>
+      </c>
+      <c r="H163" s="21">
+        <v>29</v>
+      </c>
+      <c r="I163" s="21">
+        <v>20</v>
+      </c>
+      <c r="J163" s="21">
+        <v>21</v>
       </c>
       <c r="K163" s="21">
         <v>1000</v>
@@ -9745,8 +9663,8 @@
       <c r="F164" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G164" s="25">
-        <v>200</v>
+      <c r="G164" s="21">
+        <v>38</v>
       </c>
       <c r="H164" s="21">
         <v>1000</v>
@@ -9795,8 +9713,8 @@
       <c r="F165" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G165" s="25">
-        <v>200</v>
+      <c r="G165" s="21">
+        <v>9</v>
       </c>
       <c r="H165" s="21">
         <v>1000</v>
@@ -9895,17 +9813,17 @@
       <c r="F167" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G167" s="25">
-        <v>200</v>
-      </c>
-      <c r="H167" s="25">
-        <v>200</v>
-      </c>
-      <c r="I167" s="25">
-        <v>200</v>
-      </c>
-      <c r="J167" s="25">
-        <v>200</v>
+      <c r="G167" s="21">
+        <v>150</v>
+      </c>
+      <c r="H167" s="21">
+        <v>151</v>
+      </c>
+      <c r="I167" s="21">
+        <v>152</v>
+      </c>
+      <c r="J167" s="21">
+        <v>160</v>
       </c>
       <c r="K167" s="21">
         <v>1000</v>
@@ -9945,8 +9863,8 @@
       <c r="F168" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G168" s="25">
-        <v>200</v>
+      <c r="G168" s="21">
+        <v>75</v>
       </c>
       <c r="H168" s="21">
         <v>1000</v>
@@ -9995,8 +9913,8 @@
       <c r="F169" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G169" s="25">
-        <v>200</v>
+      <c r="G169" s="21">
+        <v>95</v>
       </c>
       <c r="H169" s="21">
         <v>1000</v>
@@ -10095,8 +10013,8 @@
       <c r="F171" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G171" s="24">
-        <v>200</v>
+      <c r="G171" s="22">
+        <v>43</v>
       </c>
       <c r="H171" s="22">
         <v>1000</v>
@@ -10145,17 +10063,17 @@
       <c r="F172" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G172" s="24">
-        <v>200</v>
-      </c>
-      <c r="H172" s="24">
-        <v>200</v>
-      </c>
-      <c r="I172" s="24">
-        <v>200</v>
-      </c>
-      <c r="J172" s="24">
-        <v>200</v>
+      <c r="G172" s="22">
+        <v>193</v>
+      </c>
+      <c r="H172" s="22">
+        <v>194</v>
+      </c>
+      <c r="I172" s="22">
+        <v>195</v>
+      </c>
+      <c r="J172" s="22">
+        <v>196</v>
       </c>
       <c r="K172" s="22">
         <v>1000</v>
@@ -10195,14 +10113,14 @@
       <c r="F173" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G173" s="24">
-        <v>200</v>
-      </c>
-      <c r="H173" s="24">
-        <v>200</v>
-      </c>
-      <c r="I173" s="24">
-        <v>200</v>
+      <c r="G173" s="22">
+        <v>171</v>
+      </c>
+      <c r="H173" s="22">
+        <v>172</v>
+      </c>
+      <c r="I173" s="22">
+        <v>71</v>
       </c>
       <c r="J173" s="22">
         <v>1000</v>
@@ -10245,17 +10163,17 @@
       <c r="F174" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G174" s="24">
-        <v>200</v>
-      </c>
-      <c r="H174" s="24">
-        <v>200</v>
-      </c>
-      <c r="I174" s="24">
-        <v>200</v>
-      </c>
-      <c r="J174" s="24">
-        <v>200</v>
+      <c r="G174" s="22">
+        <v>159</v>
+      </c>
+      <c r="H174" s="22">
+        <v>160</v>
+      </c>
+      <c r="I174" s="22">
+        <v>161</v>
+      </c>
+      <c r="J174" s="22">
+        <v>108</v>
       </c>
       <c r="K174" s="22">
         <v>1000</v>
@@ -10295,11 +10213,11 @@
       <c r="F175" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G175" s="24">
-        <v>200</v>
-      </c>
-      <c r="H175" s="24">
-        <v>200</v>
+      <c r="G175" s="22">
+        <v>129</v>
+      </c>
+      <c r="H175" s="22">
+        <v>130</v>
       </c>
       <c r="I175" s="22">
         <v>1000</v>
@@ -10345,23 +10263,23 @@
       <c r="F176" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G176" s="24">
-        <v>200</v>
-      </c>
-      <c r="H176" s="24">
-        <v>200</v>
-      </c>
-      <c r="I176" s="24">
-        <v>200</v>
-      </c>
-      <c r="J176" s="24">
-        <v>200</v>
-      </c>
-      <c r="K176" s="24">
-        <v>200</v>
-      </c>
-      <c r="L176" s="24">
-        <v>200</v>
+      <c r="G176" s="22">
+        <v>118</v>
+      </c>
+      <c r="H176" s="22">
+        <v>119</v>
+      </c>
+      <c r="I176" s="22">
+        <v>120</v>
+      </c>
+      <c r="J176" s="22">
+        <v>29</v>
+      </c>
+      <c r="K176" s="22">
+        <v>30</v>
+      </c>
+      <c r="L176" s="22">
+        <v>31</v>
       </c>
       <c r="M176" s="22">
         <v>1000</v>
@@ -10395,8 +10313,8 @@
       <c r="F177" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G177" s="24">
-        <v>200</v>
+      <c r="G177" s="22">
+        <v>153</v>
       </c>
       <c r="H177" s="22">
         <v>1000</v>
@@ -10445,20 +10363,20 @@
       <c r="F178" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G178" s="24">
-        <v>200</v>
-      </c>
-      <c r="H178" s="24">
-        <v>200</v>
-      </c>
-      <c r="I178" s="24">
-        <v>200</v>
-      </c>
-      <c r="J178" s="24">
-        <v>200</v>
-      </c>
-      <c r="K178" s="24">
-        <v>200</v>
+      <c r="G178" s="22">
+        <v>216</v>
+      </c>
+      <c r="H178" s="22">
+        <v>217</v>
+      </c>
+      <c r="I178" s="22">
+        <v>16</v>
+      </c>
+      <c r="J178" s="22">
+        <v>17</v>
+      </c>
+      <c r="K178" s="22">
+        <v>18</v>
       </c>
       <c r="L178" s="22">
         <v>1000</v>
@@ -10495,11 +10413,11 @@
       <c r="F179" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G179" s="24">
-        <v>200</v>
-      </c>
-      <c r="H179" s="24">
-        <v>200</v>
+      <c r="G179" s="22">
+        <v>181</v>
+      </c>
+      <c r="H179" s="22">
+        <v>7</v>
       </c>
       <c r="I179" s="22">
         <v>1000</v>
@@ -10545,20 +10463,20 @@
       <c r="F180" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G180" s="24">
-        <v>200</v>
-      </c>
-      <c r="H180" s="24">
-        <v>200</v>
-      </c>
-      <c r="I180" s="24">
-        <v>200</v>
-      </c>
-      <c r="J180" s="24">
-        <v>200</v>
-      </c>
-      <c r="K180" s="24">
-        <v>200</v>
+      <c r="G180" s="22">
+        <v>137</v>
+      </c>
+      <c r="H180" s="22">
+        <v>138</v>
+      </c>
+      <c r="I180" s="22">
+        <v>139</v>
+      </c>
+      <c r="J180" s="22">
+        <v>140</v>
+      </c>
+      <c r="K180" s="22">
+        <v>87</v>
       </c>
       <c r="L180" s="22">
         <v>1000</v>
@@ -10595,14 +10513,14 @@
       <c r="F181" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G181" s="25">
-        <v>200</v>
-      </c>
-      <c r="H181" s="25">
-        <v>200</v>
-      </c>
-      <c r="I181" s="25">
-        <v>200</v>
+      <c r="G181" s="21">
+        <v>10</v>
+      </c>
+      <c r="H181" s="21">
+        <v>163</v>
+      </c>
+      <c r="I181" s="21">
+        <v>164</v>
       </c>
       <c r="J181" s="21">
         <v>1000</v>
@@ -10645,14 +10563,14 @@
       <c r="F182" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G182" s="25">
-        <v>200</v>
-      </c>
-      <c r="H182" s="25">
-        <v>200</v>
-      </c>
-      <c r="I182" s="25">
-        <v>200</v>
+      <c r="G182" s="21">
+        <v>16</v>
+      </c>
+      <c r="H182" s="21">
+        <v>17</v>
+      </c>
+      <c r="I182" s="21">
+        <v>174</v>
       </c>
       <c r="J182" s="21">
         <v>1000</v>
@@ -10695,23 +10613,23 @@
       <c r="F183" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G183" s="25">
-        <v>200</v>
-      </c>
-      <c r="H183" s="25">
-        <v>200</v>
-      </c>
-      <c r="I183" s="25">
-        <v>200</v>
-      </c>
-      <c r="J183" s="25">
-        <v>200</v>
-      </c>
-      <c r="K183" s="25">
-        <v>200</v>
-      </c>
-      <c r="L183" s="25">
-        <v>200</v>
+      <c r="G183" s="21">
+        <v>29</v>
+      </c>
+      <c r="H183" s="21">
+        <v>30</v>
+      </c>
+      <c r="I183" s="21">
+        <v>31</v>
+      </c>
+      <c r="J183" s="21">
+        <v>214</v>
+      </c>
+      <c r="K183" s="21">
+        <v>215</v>
+      </c>
+      <c r="L183" s="21">
+        <v>216</v>
       </c>
       <c r="M183" s="21">
         <v>1000</v>
@@ -10745,14 +10663,14 @@
       <c r="F184" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G184" s="25">
-        <v>200</v>
-      </c>
-      <c r="H184" s="25">
-        <v>200</v>
-      </c>
-      <c r="I184" s="25">
-        <v>200</v>
+      <c r="G184" s="21">
+        <v>40</v>
+      </c>
+      <c r="H184" s="21">
+        <v>41</v>
+      </c>
+      <c r="I184" s="21">
+        <v>119</v>
       </c>
       <c r="J184" s="21">
         <v>1000</v>
@@ -10795,11 +10713,11 @@
       <c r="F185" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G185" s="25">
-        <v>200</v>
-      </c>
-      <c r="H185" s="25">
-        <v>200</v>
+      <c r="G185" s="21">
+        <v>50</v>
+      </c>
+      <c r="H185" s="21">
+        <v>51</v>
       </c>
       <c r="I185" s="21">
         <v>1000</v>
@@ -10845,8 +10763,8 @@
       <c r="F186" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G186" s="25">
-        <v>200</v>
+      <c r="G186" s="21">
+        <v>63</v>
       </c>
       <c r="H186" s="21">
         <v>1000</v>
@@ -10945,8 +10863,8 @@
       <c r="F188" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G188" s="25">
-        <v>200</v>
+      <c r="G188" s="21">
+        <v>207</v>
       </c>
       <c r="H188" s="21">
         <v>1000</v>
@@ -10995,14 +10913,14 @@
       <c r="F189" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G189" s="25">
-        <v>200</v>
-      </c>
-      <c r="H189" s="25">
-        <v>200</v>
-      </c>
-      <c r="I189" s="25">
-        <v>200</v>
+      <c r="G189" s="21">
+        <v>97</v>
+      </c>
+      <c r="H189" s="21">
+        <v>193</v>
+      </c>
+      <c r="I189" s="21">
+        <v>194</v>
       </c>
       <c r="J189" s="21">
         <v>1000</v>
@@ -11045,8 +10963,8 @@
       <c r="F190" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G190" s="25">
-        <v>200</v>
+      <c r="G190" s="21">
+        <v>104</v>
       </c>
       <c r="H190" s="21">
         <v>1000</v>
@@ -11095,17 +11013,17 @@
       <c r="F191" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G191" s="24">
-        <v>200</v>
-      </c>
-      <c r="H191" s="24">
-        <v>200</v>
-      </c>
-      <c r="I191" s="24">
-        <v>200</v>
-      </c>
-      <c r="J191" s="24">
-        <v>200</v>
+      <c r="G191" s="22">
+        <v>203</v>
+      </c>
+      <c r="H191" s="22">
+        <v>204</v>
+      </c>
+      <c r="I191" s="22">
+        <v>205</v>
+      </c>
+      <c r="J191" s="22">
+        <v>98</v>
       </c>
       <c r="K191" s="22">
         <v>1000</v>
@@ -11145,20 +11063,20 @@
       <c r="F192" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G192" s="24">
-        <v>200</v>
-      </c>
-      <c r="H192" s="24">
-        <v>200</v>
-      </c>
-      <c r="I192" s="24">
-        <v>200</v>
-      </c>
-      <c r="J192" s="24">
-        <v>200</v>
-      </c>
-      <c r="K192" s="24">
-        <v>200</v>
+      <c r="G192" s="22">
+        <v>193</v>
+      </c>
+      <c r="H192" s="22">
+        <v>194</v>
+      </c>
+      <c r="I192" s="22">
+        <v>195</v>
+      </c>
+      <c r="J192" s="22">
+        <v>196</v>
+      </c>
+      <c r="K192" s="22">
+        <v>86</v>
       </c>
       <c r="L192" s="22">
         <v>1000</v>
@@ -11195,8 +11113,8 @@
       <c r="F193" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G193" s="24">
-        <v>200</v>
+      <c r="G193" s="22">
+        <v>174</v>
       </c>
       <c r="H193" s="22">
         <v>1000</v>
@@ -11245,8 +11163,8 @@
       <c r="F194" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G194" s="24">
-        <v>200</v>
+      <c r="G194" s="22">
+        <v>159</v>
       </c>
       <c r="H194" s="22">
         <v>1000</v>
@@ -11295,17 +11213,17 @@
       <c r="F195" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G195" s="24">
-        <v>200</v>
-      </c>
-      <c r="H195" s="24">
-        <v>200</v>
-      </c>
-      <c r="I195" s="24">
-        <v>200</v>
-      </c>
-      <c r="J195" s="24">
-        <v>200</v>
+      <c r="G195" s="22">
+        <v>130</v>
+      </c>
+      <c r="H195" s="22">
+        <v>131</v>
+      </c>
+      <c r="I195" s="22">
+        <v>16</v>
+      </c>
+      <c r="J195" s="22">
+        <v>17</v>
       </c>
       <c r="K195" s="22">
         <v>1000</v>
@@ -11345,14 +11263,14 @@
       <c r="F196" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G196" s="24">
-        <v>200</v>
-      </c>
-      <c r="H196" s="24">
-        <v>200</v>
-      </c>
-      <c r="I196" s="24">
-        <v>200</v>
+      <c r="G196" s="22">
+        <v>118</v>
+      </c>
+      <c r="H196" s="22">
+        <v>119</v>
+      </c>
+      <c r="I196" s="22">
+        <v>120</v>
       </c>
       <c r="J196" s="22">
         <v>1000</v>
@@ -11395,14 +11313,14 @@
       <c r="F197" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G197" s="24">
-        <v>200</v>
-      </c>
-      <c r="H197" s="24">
-        <v>200</v>
-      </c>
-      <c r="I197" s="24">
-        <v>200</v>
+      <c r="G197" s="22">
+        <v>150</v>
+      </c>
+      <c r="H197" s="22">
+        <v>41</v>
+      </c>
+      <c r="I197" s="22">
+        <v>42</v>
       </c>
       <c r="J197" s="22">
         <v>1000</v>
@@ -11445,8 +11363,8 @@
       <c r="F198" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G198" s="24">
-        <v>200</v>
+      <c r="G198" s="22">
+        <v>218</v>
       </c>
       <c r="H198" s="22">
         <v>1000</v>
@@ -11495,8 +11413,8 @@
       <c r="F199" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G199" s="24">
-        <v>200</v>
+      <c r="G199" s="22">
+        <v>76</v>
       </c>
       <c r="H199" s="22">
         <v>1000</v>
@@ -11545,8 +11463,8 @@
       <c r="F200" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G200" s="24">
-        <v>200</v>
+      <c r="G200" s="22">
+        <v>141</v>
       </c>
       <c r="H200" s="22">
         <v>1000</v>
@@ -11595,20 +11513,20 @@
       <c r="F201" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G201" s="25">
-        <v>200</v>
-      </c>
-      <c r="H201" s="25">
-        <v>200</v>
-      </c>
-      <c r="I201" s="25">
-        <v>200</v>
-      </c>
-      <c r="J201" s="25">
-        <v>200</v>
-      </c>
-      <c r="K201" s="25">
-        <v>200</v>
+      <c r="G201" s="21">
+        <v>8</v>
+      </c>
+      <c r="H201" s="21">
+        <v>9</v>
+      </c>
+      <c r="I201" s="21">
+        <v>139</v>
+      </c>
+      <c r="J201" s="21">
+        <v>140</v>
+      </c>
+      <c r="K201" s="21">
+        <v>141</v>
       </c>
       <c r="L201" s="21">
         <v>1000</v>
@@ -11645,8 +11563,8 @@
       <c r="F202" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G202" s="25">
-        <v>200</v>
+      <c r="G202" s="21">
+        <v>17</v>
       </c>
       <c r="H202" s="21">
         <v>1000</v>
@@ -11695,8 +11613,8 @@
       <c r="F203" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G203" s="25">
-        <v>200</v>
+      <c r="G203" s="21">
+        <v>195</v>
       </c>
       <c r="H203" s="21">
         <v>1000</v>
@@ -11745,14 +11663,14 @@
       <c r="F204" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G204" s="25">
-        <v>200</v>
-      </c>
-      <c r="H204" s="25">
-        <v>200</v>
-      </c>
-      <c r="I204" s="25">
-        <v>200</v>
+      <c r="G204" s="21">
+        <v>40</v>
+      </c>
+      <c r="H204" s="21">
+        <v>41</v>
+      </c>
+      <c r="I204" s="21">
+        <v>42</v>
       </c>
       <c r="J204" s="21">
         <v>1000</v>
@@ -11795,11 +11713,11 @@
       <c r="F205" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G205" s="25">
-        <v>200</v>
-      </c>
-      <c r="H205" s="25">
-        <v>200</v>
+      <c r="G205" s="21">
+        <v>51</v>
+      </c>
+      <c r="H205" s="21">
+        <v>151</v>
       </c>
       <c r="I205" s="21">
         <v>1000</v>
@@ -11845,8 +11763,8 @@
       <c r="F206" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G206" s="25">
-        <v>200</v>
+      <c r="G206" s="21">
+        <v>207</v>
       </c>
       <c r="H206" s="21">
         <v>1000</v>
@@ -11895,14 +11813,14 @@
       <c r="F207" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G207" s="25">
-        <v>200</v>
-      </c>
-      <c r="H207" s="25">
-        <v>200</v>
-      </c>
-      <c r="I207" s="25">
-        <v>200</v>
+      <c r="G207" s="21">
+        <v>73</v>
+      </c>
+      <c r="H207" s="21">
+        <v>74</v>
+      </c>
+      <c r="I207" s="21">
+        <v>75</v>
       </c>
       <c r="J207" s="21">
         <v>1000</v>
@@ -11945,14 +11863,14 @@
       <c r="F208" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G208" s="25">
-        <v>200</v>
-      </c>
-      <c r="H208" s="25">
-        <v>200</v>
-      </c>
-      <c r="I208" s="25">
-        <v>200</v>
+      <c r="G208" s="21">
+        <v>85</v>
+      </c>
+      <c r="H208" s="21">
+        <v>86</v>
+      </c>
+      <c r="I208" s="21">
+        <v>171</v>
       </c>
       <c r="J208" s="21">
         <v>1000</v>
@@ -11995,11 +11913,11 @@
       <c r="F209" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G209" s="25">
-        <v>200</v>
-      </c>
-      <c r="H209" s="25">
-        <v>200</v>
+      <c r="G209" s="21">
+        <v>98</v>
+      </c>
+      <c r="H209" s="21">
+        <v>159</v>
       </c>
       <c r="I209" s="21">
         <v>1000</v>
@@ -12045,14 +11963,14 @@
       <c r="F210" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G210" s="25">
-        <v>200</v>
-      </c>
-      <c r="H210" s="25">
-        <v>200</v>
-      </c>
-      <c r="I210" s="25">
-        <v>200</v>
+      <c r="G210" s="21">
+        <v>107</v>
+      </c>
+      <c r="H210" s="21">
+        <v>128</v>
+      </c>
+      <c r="I210" s="21">
+        <v>129</v>
       </c>
       <c r="J210" s="21">
         <v>1000</v>
@@ -12086,17 +12004,17 @@
       <c r="C211" s="16">
         <v>1</v>
       </c>
-      <c r="D211" s="26">
+      <c r="D211" s="24">
         <v>0</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G211" s="22">
+        <v>207</v>
       </c>
       <c r="H211" s="22">
         <v>1000</v>
@@ -12136,29 +12054,29 @@
       <c r="C212" s="16">
         <v>5</v>
       </c>
-      <c r="D212" s="26">
+      <c r="D212" s="24">
         <v>0</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" s="24">
-        <v>200</v>
-      </c>
-      <c r="H212" s="24">
-        <v>200</v>
-      </c>
-      <c r="I212" s="24">
-        <v>200</v>
-      </c>
-      <c r="J212" s="24">
-        <v>200</v>
-      </c>
-      <c r="K212" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G212" s="22">
+        <v>192</v>
+      </c>
+      <c r="H212" s="22">
+        <v>193</v>
+      </c>
+      <c r="I212" s="22">
+        <v>194</v>
+      </c>
+      <c r="J212" s="22">
+        <v>195</v>
+      </c>
+      <c r="K212" s="22">
+        <v>196</v>
       </c>
       <c r="L212" s="22">
         <v>1000</v>
@@ -12186,23 +12104,23 @@
       <c r="C213" s="16">
         <v>3</v>
       </c>
-      <c r="D213" s="26">
+      <c r="D213" s="24">
         <v>0</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" s="24">
-        <v>200</v>
-      </c>
-      <c r="H213" s="24">
-        <v>200</v>
-      </c>
-      <c r="I213" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G213" s="22">
+        <v>29</v>
+      </c>
+      <c r="H213" s="22">
+        <v>30</v>
+      </c>
+      <c r="I213" s="22">
+        <v>31</v>
       </c>
       <c r="J213" s="22">
         <v>1000</v>
@@ -12236,17 +12154,17 @@
       <c r="C214" s="16">
         <v>0</v>
       </c>
-      <c r="D214" s="26">
+      <c r="D214" s="24">
         <v>1</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G214" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G214" s="22">
+        <v>38</v>
       </c>
       <c r="H214" s="22">
         <v>1000</v>
@@ -12286,14 +12204,14 @@
       <c r="C215" s="16">
         <v>0</v>
       </c>
-      <c r="D215" s="26">
+      <c r="D215" s="24">
         <v>0</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G215" s="22">
         <v>1000</v>
@@ -12336,23 +12254,23 @@
       <c r="C216" s="16">
         <v>3</v>
       </c>
-      <c r="D216" s="26">
+      <c r="D216" s="24">
         <v>0</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" s="24">
-        <v>200</v>
-      </c>
-      <c r="H216" s="24">
-        <v>200</v>
-      </c>
-      <c r="I216" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G216" s="22">
+        <v>118</v>
+      </c>
+      <c r="H216" s="22">
+        <v>119</v>
+      </c>
+      <c r="I216" s="22">
+        <v>120</v>
       </c>
       <c r="J216" s="22">
         <v>1000</v>
@@ -12386,17 +12304,17 @@
       <c r="C217" s="16">
         <v>0</v>
       </c>
-      <c r="D217" s="26">
+      <c r="D217" s="24">
         <v>1</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G217" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G217" s="22">
+        <v>74</v>
       </c>
       <c r="H217" s="22">
         <v>1000</v>
@@ -12436,20 +12354,20 @@
       <c r="C218" s="16">
         <v>1</v>
       </c>
-      <c r="D218" s="26">
+      <c r="D218" s="24">
         <v>1</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G218" s="24">
-        <v>200</v>
-      </c>
-      <c r="H218" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G218" s="22">
+        <v>218</v>
+      </c>
+      <c r="H218" s="22">
+        <v>96</v>
       </c>
       <c r="I218" s="22">
         <v>1000</v>
@@ -12486,17 +12404,17 @@
       <c r="C219" s="16">
         <v>1</v>
       </c>
-      <c r="D219" s="26">
+      <c r="D219" s="24">
         <v>0</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G219" s="22">
+        <v>186</v>
       </c>
       <c r="H219" s="22">
         <v>1000</v>
@@ -12536,17 +12454,17 @@
       <c r="C220" s="16">
         <v>0</v>
       </c>
-      <c r="D220" s="26">
+      <c r="D220" s="24">
         <v>1</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G220" s="24">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G220" s="22">
+        <v>9</v>
       </c>
       <c r="H220" s="22">
         <v>1000</v>
@@ -20578,657 +20496,657 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B380">
-    <cfRule type="cellIs" dxfId="142" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="239" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F380">
-    <cfRule type="cellIs" dxfId="141" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="237" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E380">
-    <cfRule type="cellIs" dxfId="140" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="236" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:P1">
-    <cfRule type="cellIs" dxfId="139" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="235" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:J3">
-    <cfRule type="cellIs" dxfId="138" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="234" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:P20">
-    <cfRule type="cellIs" dxfId="137" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="232" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:P30">
-    <cfRule type="cellIs" dxfId="136" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="231" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:P30">
-    <cfRule type="cellIs" dxfId="135" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="230" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="134" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="176" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="133" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="175" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:P2">
-    <cfRule type="cellIs" dxfId="132" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P3">
-    <cfRule type="cellIs" dxfId="131" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:P4">
-    <cfRule type="cellIs" dxfId="130" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="cellIs" dxfId="129" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:P10">
-    <cfRule type="cellIs" dxfId="128" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:P40">
-    <cfRule type="cellIs" dxfId="127" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:P50">
-    <cfRule type="cellIs" dxfId="126" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:P50">
-    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:P60">
-    <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:P70">
-    <cfRule type="cellIs" dxfId="123" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:P70">
-    <cfRule type="cellIs" dxfId="122" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:P80">
-    <cfRule type="cellIs" dxfId="121" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="111" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:P90">
-    <cfRule type="cellIs" dxfId="120" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:P90">
-    <cfRule type="cellIs" dxfId="119" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="109" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:P100">
-    <cfRule type="cellIs" dxfId="118" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:P110">
-    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:P110">
-    <cfRule type="cellIs" dxfId="116" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:P120">
-    <cfRule type="cellIs" dxfId="115" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121:P130">
-    <cfRule type="cellIs" dxfId="114" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:P130">
-    <cfRule type="cellIs" dxfId="113" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="103" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:P140">
-    <cfRule type="cellIs" dxfId="112" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G141:P150">
-    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:P150">
-    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151:P160">
-    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:P170">
-    <cfRule type="cellIs" dxfId="108" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:P170">
-    <cfRule type="cellIs" dxfId="107" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="97" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180:P180 H171:P171 K172:P172 J173:P173 K174:P174 I175:P175 M176:P176 H177:P177 L178:P178 I179:P179">
-    <cfRule type="cellIs" dxfId="106" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:P187 J181:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
-    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:P187 J182:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
-    <cfRule type="cellIs" dxfId="104" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:P191 L192:P192 H193:P194 K195:P195 J196:P197 H198:P200">
-    <cfRule type="cellIs" dxfId="103" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J210:P210 L201:P201 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
-    <cfRule type="cellIs" dxfId="102" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J210:P210 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
-    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G215:P215 H211:P211 L212:P212 J213:P213 H214:P214 J216:P216 H217:P217 I218:P218 H219:P220">
-    <cfRule type="cellIs" dxfId="100" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221:P230">
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G222:P230">
-    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G231:P240">
-    <cfRule type="cellIs" dxfId="97" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G241:P250">
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:P250">
-    <cfRule type="cellIs" dxfId="95" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G251:P260">
-    <cfRule type="cellIs" dxfId="94" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261:P270">
-    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262:P270">
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G271:P280">
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G281:P290">
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G282:P290">
-    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G291:P300">
-    <cfRule type="cellIs" dxfId="88" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301:P310">
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:P310">
-    <cfRule type="cellIs" dxfId="86" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G311:P320">
-    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G321:P330">
-    <cfRule type="cellIs" dxfId="84" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G322:P330">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G331:P340">
-    <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G341:P350">
-    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342:P350">
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G351:P360">
-    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G361:P370">
-    <cfRule type="cellIs" dxfId="78" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G362:P370">
-    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:P380">
-    <cfRule type="cellIs" dxfId="76" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:J172">
-    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:I173">
-    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:J174">
-    <cfRule type="cellIs" dxfId="72" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:L176">
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177">
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:K178">
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:K180">
-    <cfRule type="cellIs" dxfId="66" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:I181">
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:I181">
-    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:I182">
-    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:I182">
-    <cfRule type="cellIs" dxfId="62" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:L183">
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:L183">
-    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:I184">
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:I184">
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:I189">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:I189">
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="cellIs" dxfId="48" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:J191">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192:K192">
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:G194">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:J195">
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196:I196">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197:I197">
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:G200">
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201:K201">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201:K201">
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202">
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203">
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:I204">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:I204">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:H205">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:H205">
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:I207">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:I207">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208:I208">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208:I208">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G209:H209">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G209:H209">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G210:I210">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G210:I210">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G211">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G212:K212">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:I213">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G214">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G216:I216">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G217">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:H218">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G219">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/brasileirao/src/arquivos/partidas.xlsx
+++ b/brasileirao/src/arquivos/partidas.xlsx
@@ -273,14 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="132">
     <dxf>
       <font>
         <b/>
@@ -1483,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8764,13 +8757,13 @@
         <v>20</v>
       </c>
       <c r="G146" s="21">
-        <v>1000</v>
+        <v>63</v>
       </c>
       <c r="H146" s="21">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="I146" s="21">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J146" s="21">
         <v>1000</v>
@@ -8814,10 +8807,10 @@
         <v>20</v>
       </c>
       <c r="G147" s="21">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="H147" s="21">
-        <v>1000</v>
+        <v>118</v>
       </c>
       <c r="I147" s="21">
         <v>1000</v>
@@ -8864,13 +8857,13 @@
         <v>20</v>
       </c>
       <c r="G148" s="21">
-        <v>1000</v>
+        <v>86</v>
       </c>
       <c r="H148" s="21">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="I148" s="21">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="J148" s="21">
         <v>1000</v>
@@ -8914,13 +8907,13 @@
         <v>20</v>
       </c>
       <c r="G149" s="21">
-        <v>1000</v>
+        <v>98</v>
       </c>
       <c r="H149" s="21">
-        <v>1000</v>
+        <v>186</v>
       </c>
       <c r="I149" s="21">
-        <v>1000</v>
+        <v>186</v>
       </c>
       <c r="J149" s="21">
         <v>1000</v>
@@ -8964,13 +8957,13 @@
         <v>20</v>
       </c>
       <c r="G150" s="21">
-        <v>1000</v>
+        <v>105</v>
       </c>
       <c r="H150" s="21">
-        <v>1000</v>
+        <v>105</v>
       </c>
       <c r="I150" s="21">
-        <v>1000</v>
+        <v>76</v>
       </c>
       <c r="J150" s="21">
         <v>1000</v>
@@ -20496,662 +20489,662 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B380">
-    <cfRule type="cellIs" dxfId="132" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="239" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F380">
-    <cfRule type="cellIs" dxfId="131" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="237" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E380">
-    <cfRule type="cellIs" dxfId="130" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="236" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:P1">
-    <cfRule type="cellIs" dxfId="129" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="235" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:J3">
-    <cfRule type="cellIs" dxfId="128" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="234" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:P20">
-    <cfRule type="cellIs" dxfId="127" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="232" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:P30">
-    <cfRule type="cellIs" dxfId="126" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="231" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:P30">
-    <cfRule type="cellIs" dxfId="125" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="230" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="124" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="176" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="123" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="175" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:P2">
-    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P3">
-    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:P4">
-    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:P10">
-    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:P40">
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:P50">
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:P50">
-    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:P60">
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:P70">
-    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:P70">
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:P80">
-    <cfRule type="cellIs" dxfId="111" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:P90">
-    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:P90">
-    <cfRule type="cellIs" dxfId="109" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:P100">
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:P110">
-    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:P110">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:P120">
-    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121:P130">
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122:P130">
-    <cfRule type="cellIs" dxfId="103" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:P140">
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G141:P150">
-    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:P150">
-    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151:P160">
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:P170">
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:P170">
-    <cfRule type="cellIs" dxfId="97" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L180:P180 H171:P171 K172:P172 J173:P173 K174:P174 I175:P175 M176:P176 H177:P177 L178:P178 I179:P179">
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:P187 J181:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
-    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G187:P187 J182:P182 M183:P183 J184:P184 I185:P185 H186:P186 H190:P190 H188:P188 J189:P189">
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:P191 L192:P192 H193:P194 K195:P195 J196:P197 H198:P200">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J210:P210 L201:P201 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J210:P210 H202:P203 J204:P204 I205:P205 H206:P206 J207:P208 I209:P209">
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G215:P215 H211:P211 L212:P212 J213:P213 H214:P214 J216:P216 H217:P217 I218:P218 H219:P220">
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221:P230">
-    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G222:P230">
-    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G231:P240">
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G241:P250">
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:P250">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G251:P260">
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261:P270">
-    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262:P270">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G271:P280">
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G281:P290">
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G282:P290">
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G291:P300">
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G301:P310">
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:P310">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G311:P320">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G321:P330">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G322:P330">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G331:P340">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G341:P350">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342:P350">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G351:P360">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G361:P370">
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G362:P370">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:P380">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:J172">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:I173">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G174:J174">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:H175">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:L176">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:K178">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H179">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G180:K180">
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:I181">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G181:I181">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:I182">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:I182">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:L183">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G183:L183">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:I184">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G184:I184">
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185:H185">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:I189">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189:I189">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G191:J191">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G192:K192">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:G194">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:J195">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196:I196">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G197:I197">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G199:G200">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201:K201">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201:K201">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:I204">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:I204">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:H205">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G205:H205">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:I207">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:I207">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208:I208">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208:I208">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G209:H209">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G209:H209">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G210:I210">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G210:I210">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G211">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G212:K212">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:I213">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G214">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G216:I216">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G217">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:H218">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G219">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G220">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
